--- a/docs/resources/tables/task-analysis-2023-02-03.xlsx
+++ b/docs/resources/tables/task-analysis-2023-02-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahrim\Desktop\Projects\pm-project\docs\resources\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E1AE0-C82A-4761-A23D-94F6FEC2BA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D9095-6DC9-4CA1-9B66-97335EA3A6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Analysis" sheetId="1" r:id="rId1"/>
@@ -1343,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1507,6 +1507,12 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,12 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1822,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S168"/>
+  <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N177" sqref="N177"/>
+    <sheetView tabSelected="1" topLeftCell="C111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R93" sqref="R93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,25 +1848,25 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="57" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="6" t="s">
         <v>265</v>
       </c>
@@ -1876,24 +1877,24 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1983,40 +1984,40 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="62">
-        <v>9</v>
-      </c>
-      <c r="D6" s="62">
-        <v>3</v>
-      </c>
-      <c r="E6" s="62">
+      <c r="C6" s="55">
+        <v>9</v>
+      </c>
+      <c r="D6" s="55">
+        <v>3</v>
+      </c>
+      <c r="E6" s="55">
         <v>15</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="55">
         <v>6</v>
       </c>
       <c r="G6" s="22">
         <v>9</v>
       </c>
-      <c r="H6" s="62">
-        <v>6</v>
-      </c>
-      <c r="I6" s="62">
+      <c r="H6" s="55">
+        <v>6</v>
+      </c>
+      <c r="I6" s="55">
         <v>12</v>
       </c>
       <c r="J6" s="24">
         <v>9</v>
       </c>
-      <c r="K6" s="62">
-        <v>9</v>
-      </c>
-      <c r="L6" s="62">
-        <v>6</v>
-      </c>
-      <c r="M6" s="62">
-        <v>12</v>
-      </c>
-      <c r="N6" s="62">
+      <c r="K6" s="55">
+        <v>9</v>
+      </c>
+      <c r="L6" s="55">
+        <v>6</v>
+      </c>
+      <c r="M6" s="55">
+        <v>12</v>
+      </c>
+      <c r="N6" s="55">
         <v>9</v>
       </c>
       <c r="O6" s="25">
@@ -2046,40 +2047,40 @@
       <c r="B7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="62">
-        <v>12</v>
-      </c>
-      <c r="D7" s="62">
-        <v>6</v>
-      </c>
-      <c r="E7" s="62">
+      <c r="C7" s="55">
+        <v>12</v>
+      </c>
+      <c r="D7" s="55">
+        <v>6</v>
+      </c>
+      <c r="E7" s="55">
         <v>15</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="55">
         <v>9</v>
       </c>
       <c r="G7" s="22">
         <v>12</v>
       </c>
-      <c r="H7" s="62">
-        <v>6</v>
-      </c>
-      <c r="I7" s="62">
+      <c r="H7" s="55">
+        <v>6</v>
+      </c>
+      <c r="I7" s="55">
         <v>12</v>
       </c>
       <c r="J7" s="24">
         <v>9</v>
       </c>
-      <c r="K7" s="62">
-        <v>12</v>
-      </c>
-      <c r="L7" s="62">
-        <v>6</v>
-      </c>
-      <c r="M7" s="62">
-        <v>12</v>
-      </c>
-      <c r="N7" s="62">
+      <c r="K7" s="55">
+        <v>12</v>
+      </c>
+      <c r="L7" s="55">
+        <v>6</v>
+      </c>
+      <c r="M7" s="55">
+        <v>12</v>
+      </c>
+      <c r="N7" s="55">
         <v>9</v>
       </c>
       <c r="O7" s="25">
@@ -2109,40 +2110,40 @@
       <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="62">
-        <v>6</v>
-      </c>
-      <c r="D8" s="62">
-        <v>6</v>
-      </c>
-      <c r="E8" s="62">
-        <v>9</v>
-      </c>
-      <c r="F8" s="62">
+      <c r="C8" s="55">
+        <v>6</v>
+      </c>
+      <c r="D8" s="55">
+        <v>6</v>
+      </c>
+      <c r="E8" s="55">
+        <v>9</v>
+      </c>
+      <c r="F8" s="55">
         <v>6</v>
       </c>
       <c r="G8" s="22">
         <v>6</v>
       </c>
-      <c r="H8" s="62">
-        <v>6</v>
-      </c>
-      <c r="I8" s="62">
+      <c r="H8" s="55">
+        <v>6</v>
+      </c>
+      <c r="I8" s="55">
         <v>9</v>
       </c>
       <c r="J8" s="24">
         <v>6</v>
       </c>
-      <c r="K8" s="62">
-        <v>6</v>
-      </c>
-      <c r="L8" s="62">
-        <v>6</v>
-      </c>
-      <c r="M8" s="62">
-        <v>9</v>
-      </c>
-      <c r="N8" s="62">
+      <c r="K8" s="55">
+        <v>6</v>
+      </c>
+      <c r="L8" s="55">
+        <v>6</v>
+      </c>
+      <c r="M8" s="55">
+        <v>9</v>
+      </c>
+      <c r="N8" s="55">
         <v>6</v>
       </c>
       <c r="O8" s="25">
@@ -2172,40 +2173,40 @@
       <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="55">
         <v>0.75</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="55">
         <v>1.5</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="55">
         <v>1.5</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="55">
         <v>1.5</v>
       </c>
       <c r="G9" s="22">
         <v>0.75</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="55">
         <v>1.5</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="55">
         <v>1.5</v>
       </c>
       <c r="J9" s="24">
         <v>1.5</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="55">
         <v>0.75</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="55">
         <v>1.5</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="55">
         <v>1.5</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="55">
         <v>1.5</v>
       </c>
       <c r="O9" s="25">
@@ -2235,40 +2236,40 @@
       <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="55">
         <v>0.75</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="55">
         <v>1.5</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="55">
         <v>1.5</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="55">
         <v>1.5</v>
       </c>
       <c r="G10" s="22">
         <v>0.75</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="55">
         <v>1.5</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="55">
         <v>1.5</v>
       </c>
       <c r="J10" s="24">
         <v>1.5</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="55">
         <v>0.75</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="55">
         <v>1.5</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="55">
         <v>1.5</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="55">
         <v>1.5</v>
       </c>
       <c r="O10" s="25">
@@ -2298,40 +2299,40 @@
       <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="55">
         <v>1.5</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="55">
         <v>1.5</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="55">
         <v>1.5</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="55">
         <v>1.5</v>
       </c>
       <c r="G11" s="22">
         <v>1.5</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="55">
         <v>1.5</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="55">
         <v>1.5</v>
       </c>
       <c r="J11" s="24">
         <v>1.5</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="55">
         <v>1.5</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="55">
         <v>1.5</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="55">
         <v>1.5</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="55">
         <v>1.5</v>
       </c>
       <c r="O11" s="25">
@@ -2361,40 +2362,40 @@
       <c r="B12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="55">
         <v>0.75</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="55">
         <v>1.5</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="55">
         <v>1.5</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="55">
         <v>1.5</v>
       </c>
       <c r="G12" s="22">
         <v>0.75</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="55">
         <v>1.5</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="55">
         <v>1.5</v>
       </c>
       <c r="J12" s="24">
         <v>1.5</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="55">
         <v>0.75</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="55">
         <v>1.5</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="55">
         <v>1.5</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="55">
         <v>1.5</v>
       </c>
       <c r="O12" s="25">
@@ -2424,40 +2425,40 @@
       <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="55">
         <v>0.75</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="55">
         <v>1.5</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="55">
         <v>1.5</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="55">
         <v>1.5</v>
       </c>
       <c r="G13" s="22">
         <v>0.75</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="55">
         <v>1.5</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="55">
         <v>1.5</v>
       </c>
       <c r="J13" s="24">
         <v>1.5</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="55">
         <v>0.75</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="55">
         <v>1.5</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="55">
         <v>1.5</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="55">
         <v>1.5</v>
       </c>
       <c r="O13" s="25">
@@ -2487,40 +2488,40 @@
       <c r="B14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="55">
         <v>0.75</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="55">
         <v>1.5</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="55">
         <v>1.5</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="55">
         <v>1.5</v>
       </c>
       <c r="G14" s="22">
         <v>0.75</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="55">
         <v>1.5</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="55">
         <v>1.5</v>
       </c>
       <c r="J14" s="24">
         <v>1.5</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="55">
         <v>0.75</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="55">
         <v>1.5</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="55">
         <v>1.5</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="55">
         <v>1.5</v>
       </c>
       <c r="O14" s="25">
@@ -2575,40 +2576,40 @@
       <c r="B16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="62">
-        <v>3</v>
-      </c>
-      <c r="D16" s="62">
-        <v>3</v>
-      </c>
-      <c r="E16" s="62">
-        <v>12</v>
-      </c>
-      <c r="F16" s="62">
+      <c r="C16" s="55">
+        <v>3</v>
+      </c>
+      <c r="D16" s="55">
+        <v>3</v>
+      </c>
+      <c r="E16" s="55">
+        <v>12</v>
+      </c>
+      <c r="F16" s="55">
         <v>6</v>
       </c>
       <c r="G16" s="22">
         <v>6</v>
       </c>
-      <c r="H16" s="62">
-        <v>6</v>
-      </c>
-      <c r="I16" s="62">
+      <c r="H16" s="55">
+        <v>6</v>
+      </c>
+      <c r="I16" s="55">
         <v>9</v>
       </c>
       <c r="J16" s="24">
         <v>6</v>
       </c>
-      <c r="K16" s="62">
-        <v>6</v>
-      </c>
-      <c r="L16" s="62">
-        <v>6</v>
-      </c>
-      <c r="M16" s="62">
-        <v>9</v>
-      </c>
-      <c r="N16" s="62">
+      <c r="K16" s="55">
+        <v>6</v>
+      </c>
+      <c r="L16" s="55">
+        <v>6</v>
+      </c>
+      <c r="M16" s="55">
+        <v>9</v>
+      </c>
+      <c r="N16" s="55">
         <v>6</v>
       </c>
       <c r="O16" s="25">
@@ -2638,40 +2639,40 @@
       <c r="B17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="62">
-        <v>9</v>
-      </c>
-      <c r="D17" s="62">
-        <v>9</v>
-      </c>
-      <c r="E17" s="62">
-        <v>9</v>
-      </c>
-      <c r="F17" s="62">
+      <c r="C17" s="55">
+        <v>9</v>
+      </c>
+      <c r="D17" s="55">
+        <v>9</v>
+      </c>
+      <c r="E17" s="55">
+        <v>9</v>
+      </c>
+      <c r="F17" s="55">
         <v>9</v>
       </c>
       <c r="G17" s="22">
         <v>9</v>
       </c>
-      <c r="H17" s="62">
-        <v>9</v>
-      </c>
-      <c r="I17" s="62">
+      <c r="H17" s="55">
+        <v>9</v>
+      </c>
+      <c r="I17" s="55">
         <v>9</v>
       </c>
       <c r="J17" s="24">
         <v>9</v>
       </c>
-      <c r="K17" s="62">
-        <v>9</v>
-      </c>
-      <c r="L17" s="62">
-        <v>9</v>
-      </c>
-      <c r="M17" s="62">
-        <v>9</v>
-      </c>
-      <c r="N17" s="62">
+      <c r="K17" s="55">
+        <v>9</v>
+      </c>
+      <c r="L17" s="55">
+        <v>9</v>
+      </c>
+      <c r="M17" s="55">
+        <v>9</v>
+      </c>
+      <c r="N17" s="55">
         <v>9</v>
       </c>
       <c r="O17" s="25">
@@ -2701,40 +2702,40 @@
       <c r="B18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="62">
-        <v>6</v>
-      </c>
-      <c r="D18" s="62">
-        <v>12</v>
-      </c>
-      <c r="E18" s="62">
-        <v>9</v>
-      </c>
-      <c r="F18" s="62">
+      <c r="C18" s="55">
+        <v>6</v>
+      </c>
+      <c r="D18" s="55">
+        <v>12</v>
+      </c>
+      <c r="E18" s="55">
+        <v>9</v>
+      </c>
+      <c r="F18" s="55">
         <v>9</v>
       </c>
       <c r="G18" s="22">
         <v>6</v>
       </c>
-      <c r="H18" s="62">
-        <v>12</v>
-      </c>
-      <c r="I18" s="62">
+      <c r="H18" s="55">
+        <v>12</v>
+      </c>
+      <c r="I18" s="55">
         <v>9</v>
       </c>
       <c r="J18" s="24">
         <v>9</v>
       </c>
-      <c r="K18" s="62">
-        <v>6</v>
-      </c>
-      <c r="L18" s="62">
-        <v>12</v>
-      </c>
-      <c r="M18" s="62">
-        <v>9</v>
-      </c>
-      <c r="N18" s="62">
+      <c r="K18" s="55">
+        <v>6</v>
+      </c>
+      <c r="L18" s="55">
+        <v>12</v>
+      </c>
+      <c r="M18" s="55">
+        <v>9</v>
+      </c>
+      <c r="N18" s="55">
         <v>9</v>
       </c>
       <c r="O18" s="25">
@@ -2764,40 +2765,40 @@
       <c r="B19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="55">
         <v>1.5</v>
       </c>
-      <c r="D19" s="62">
-        <v>3</v>
-      </c>
-      <c r="E19" s="62">
+      <c r="D19" s="55">
+        <v>3</v>
+      </c>
+      <c r="E19" s="55">
         <v>1.5</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="55">
         <v>3</v>
       </c>
       <c r="G19" s="22">
         <v>1.5</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="55">
         <v>1.5</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="55">
         <v>1.5</v>
       </c>
       <c r="J19" s="24">
         <v>3</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="55">
         <v>1.5</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="55">
         <v>1.5</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="55">
         <v>1.5</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="55">
         <v>3</v>
       </c>
       <c r="O19" s="25">
@@ -2827,40 +2828,40 @@
       <c r="B20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="55">
         <v>1.5</v>
       </c>
-      <c r="D20" s="62">
-        <v>3</v>
-      </c>
-      <c r="E20" s="62">
+      <c r="D20" s="55">
+        <v>3</v>
+      </c>
+      <c r="E20" s="55">
         <v>1.5</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="55">
         <v>3</v>
       </c>
       <c r="G20" s="22">
         <v>1.5</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="55">
         <v>1.5</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="55">
         <v>1.5</v>
       </c>
       <c r="J20" s="24">
         <v>3</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="55">
         <v>1.5</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="55">
         <v>1.5</v>
       </c>
-      <c r="M20" s="62">
+      <c r="M20" s="55">
         <v>1.5</v>
       </c>
-      <c r="N20" s="62">
+      <c r="N20" s="55">
         <v>3</v>
       </c>
       <c r="O20" s="25">
@@ -2915,40 +2916,40 @@
       <c r="B22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="62">
-        <v>12</v>
-      </c>
-      <c r="D22" s="62">
-        <v>3</v>
-      </c>
-      <c r="E22" s="62">
+      <c r="C22" s="55">
+        <v>12</v>
+      </c>
+      <c r="D22" s="55">
+        <v>3</v>
+      </c>
+      <c r="E22" s="55">
         <v>21</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="55">
         <v>3</v>
       </c>
       <c r="G22" s="22">
         <v>12</v>
       </c>
-      <c r="H22" s="62">
-        <v>6</v>
-      </c>
-      <c r="I22" s="62">
+      <c r="H22" s="55">
+        <v>6</v>
+      </c>
+      <c r="I22" s="55">
         <v>15</v>
       </c>
       <c r="J22" s="24">
         <v>6</v>
       </c>
-      <c r="K22" s="62">
-        <v>12</v>
-      </c>
-      <c r="L22" s="62">
-        <v>6</v>
-      </c>
-      <c r="M22" s="62">
-        <v>12</v>
-      </c>
-      <c r="N22" s="62">
+      <c r="K22" s="55">
+        <v>12</v>
+      </c>
+      <c r="L22" s="55">
+        <v>6</v>
+      </c>
+      <c r="M22" s="55">
+        <v>12</v>
+      </c>
+      <c r="N22" s="55">
         <v>9</v>
       </c>
       <c r="O22" s="25">
@@ -2978,40 +2979,40 @@
       <c r="B23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="55">
         <v>18</v>
       </c>
-      <c r="D23" s="62">
-        <v>9</v>
-      </c>
-      <c r="E23" s="62">
+      <c r="D23" s="55">
+        <v>9</v>
+      </c>
+      <c r="E23" s="55">
         <v>24</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="55">
         <v>6</v>
       </c>
       <c r="G23" s="22">
         <v>15</v>
       </c>
-      <c r="H23" s="62">
-        <v>12</v>
-      </c>
-      <c r="I23" s="62">
+      <c r="H23" s="55">
+        <v>12</v>
+      </c>
+      <c r="I23" s="55">
         <v>21</v>
       </c>
       <c r="J23" s="24">
         <v>9</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="55">
         <v>15</v>
       </c>
-      <c r="L23" s="62">
-        <v>12</v>
-      </c>
-      <c r="M23" s="62">
+      <c r="L23" s="55">
+        <v>12</v>
+      </c>
+      <c r="M23" s="55">
         <v>18</v>
       </c>
-      <c r="N23" s="62">
+      <c r="N23" s="55">
         <v>12</v>
       </c>
       <c r="O23" s="25">
@@ -3041,40 +3042,40 @@
       <c r="B24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="62">
-        <v>6</v>
-      </c>
-      <c r="D24" s="62">
-        <v>6</v>
-      </c>
-      <c r="E24" s="62">
-        <v>6</v>
-      </c>
-      <c r="F24" s="62">
+      <c r="C24" s="55">
+        <v>6</v>
+      </c>
+      <c r="D24" s="55">
+        <v>6</v>
+      </c>
+      <c r="E24" s="55">
+        <v>6</v>
+      </c>
+      <c r="F24" s="55">
         <v>6</v>
       </c>
       <c r="G24" s="22">
         <v>6</v>
       </c>
-      <c r="H24" s="62">
-        <v>6</v>
-      </c>
-      <c r="I24" s="62">
+      <c r="H24" s="55">
+        <v>6</v>
+      </c>
+      <c r="I24" s="55">
         <v>6</v>
       </c>
       <c r="J24" s="24">
         <v>6</v>
       </c>
-      <c r="K24" s="62">
-        <v>6</v>
-      </c>
-      <c r="L24" s="62">
-        <v>6</v>
-      </c>
-      <c r="M24" s="62">
-        <v>6</v>
-      </c>
-      <c r="N24" s="62">
+      <c r="K24" s="55">
+        <v>6</v>
+      </c>
+      <c r="L24" s="55">
+        <v>6</v>
+      </c>
+      <c r="M24" s="55">
+        <v>6</v>
+      </c>
+      <c r="N24" s="55">
         <v>6</v>
       </c>
       <c r="O24" s="25">
@@ -3104,40 +3105,40 @@
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="62">
-        <v>3</v>
-      </c>
-      <c r="D25" s="62">
-        <v>3</v>
-      </c>
-      <c r="E25" s="62">
-        <v>6</v>
-      </c>
-      <c r="F25" s="62">
+      <c r="C25" s="55">
+        <v>3</v>
+      </c>
+      <c r="D25" s="55">
+        <v>3</v>
+      </c>
+      <c r="E25" s="55">
+        <v>6</v>
+      </c>
+      <c r="F25" s="55">
         <v>3</v>
       </c>
       <c r="G25" s="22">
         <v>3</v>
       </c>
-      <c r="H25" s="62">
-        <v>3</v>
-      </c>
-      <c r="I25" s="62">
+      <c r="H25" s="55">
+        <v>3</v>
+      </c>
+      <c r="I25" s="55">
         <v>6</v>
       </c>
       <c r="J25" s="24">
         <v>3</v>
       </c>
-      <c r="K25" s="62">
-        <v>3</v>
-      </c>
-      <c r="L25" s="62">
-        <v>3</v>
-      </c>
-      <c r="M25" s="62">
-        <v>6</v>
-      </c>
-      <c r="N25" s="62">
+      <c r="K25" s="55">
+        <v>3</v>
+      </c>
+      <c r="L25" s="55">
+        <v>3</v>
+      </c>
+      <c r="M25" s="55">
+        <v>6</v>
+      </c>
+      <c r="N25" s="55">
         <v>3</v>
       </c>
       <c r="O25" s="25">
@@ -3167,40 +3168,40 @@
       <c r="B26" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="62">
-        <v>3</v>
-      </c>
-      <c r="D26" s="62">
-        <v>3</v>
-      </c>
-      <c r="E26" s="62">
-        <v>6</v>
-      </c>
-      <c r="F26" s="62">
+      <c r="C26" s="55">
+        <v>3</v>
+      </c>
+      <c r="D26" s="55">
+        <v>3</v>
+      </c>
+      <c r="E26" s="55">
+        <v>6</v>
+      </c>
+      <c r="F26" s="55">
         <v>3</v>
       </c>
       <c r="G26" s="22">
         <v>3</v>
       </c>
-      <c r="H26" s="62">
-        <v>3</v>
-      </c>
-      <c r="I26" s="62">
+      <c r="H26" s="55">
+        <v>3</v>
+      </c>
+      <c r="I26" s="55">
         <v>6</v>
       </c>
       <c r="J26" s="24">
         <v>3</v>
       </c>
-      <c r="K26" s="62">
-        <v>3</v>
-      </c>
-      <c r="L26" s="62">
-        <v>3</v>
-      </c>
-      <c r="M26" s="62">
-        <v>6</v>
-      </c>
-      <c r="N26" s="62">
+      <c r="K26" s="55">
+        <v>3</v>
+      </c>
+      <c r="L26" s="55">
+        <v>3</v>
+      </c>
+      <c r="M26" s="55">
+        <v>6</v>
+      </c>
+      <c r="N26" s="55">
         <v>3</v>
       </c>
       <c r="O26" s="25">
@@ -3251,40 +3252,40 @@
       <c r="B28" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="62">
-        <v>9</v>
-      </c>
-      <c r="D28" s="62">
-        <v>9</v>
-      </c>
-      <c r="E28" s="62">
+      <c r="C28" s="55">
+        <v>9</v>
+      </c>
+      <c r="D28" s="55">
+        <v>9</v>
+      </c>
+      <c r="E28" s="55">
         <v>15</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="55">
         <v>6</v>
       </c>
       <c r="G28" s="22">
         <v>9</v>
       </c>
-      <c r="H28" s="62">
-        <v>9</v>
-      </c>
-      <c r="I28" s="62">
+      <c r="H28" s="55">
+        <v>9</v>
+      </c>
+      <c r="I28" s="55">
         <v>12</v>
       </c>
       <c r="J28" s="24">
         <v>9</v>
       </c>
-      <c r="K28" s="62">
-        <v>9</v>
-      </c>
-      <c r="L28" s="62">
-        <v>9</v>
-      </c>
-      <c r="M28" s="62">
-        <v>12</v>
-      </c>
-      <c r="N28" s="62">
+      <c r="K28" s="55">
+        <v>9</v>
+      </c>
+      <c r="L28" s="55">
+        <v>9</v>
+      </c>
+      <c r="M28" s="55">
+        <v>12</v>
+      </c>
+      <c r="N28" s="55">
         <v>9</v>
       </c>
       <c r="O28" s="25">
@@ -3314,40 +3315,40 @@
       <c r="B29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="62">
-        <v>9</v>
-      </c>
-      <c r="D29" s="62">
-        <v>9</v>
-      </c>
-      <c r="E29" s="62">
-        <v>12</v>
-      </c>
-      <c r="F29" s="62">
+      <c r="C29" s="55">
+        <v>9</v>
+      </c>
+      <c r="D29" s="55">
+        <v>9</v>
+      </c>
+      <c r="E29" s="55">
+        <v>12</v>
+      </c>
+      <c r="F29" s="55">
         <v>6</v>
       </c>
       <c r="G29" s="22">
         <v>9</v>
       </c>
-      <c r="H29" s="62">
-        <v>9</v>
-      </c>
-      <c r="I29" s="62">
+      <c r="H29" s="55">
+        <v>9</v>
+      </c>
+      <c r="I29" s="55">
         <v>12</v>
       </c>
       <c r="J29" s="24">
         <v>6</v>
       </c>
-      <c r="K29" s="62">
-        <v>9</v>
-      </c>
-      <c r="L29" s="62">
-        <v>9</v>
-      </c>
-      <c r="M29" s="62">
-        <v>12</v>
-      </c>
-      <c r="N29" s="62">
+      <c r="K29" s="55">
+        <v>9</v>
+      </c>
+      <c r="L29" s="55">
+        <v>9</v>
+      </c>
+      <c r="M29" s="55">
+        <v>12</v>
+      </c>
+      <c r="N29" s="55">
         <v>6</v>
       </c>
       <c r="O29" s="25">
@@ -3377,40 +3378,40 @@
       <c r="B30" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="62">
-        <v>6</v>
-      </c>
-      <c r="D30" s="62">
-        <v>6</v>
-      </c>
-      <c r="E30" s="62">
-        <v>9</v>
-      </c>
-      <c r="F30" s="62">
+      <c r="C30" s="55">
+        <v>6</v>
+      </c>
+      <c r="D30" s="55">
+        <v>6</v>
+      </c>
+      <c r="E30" s="55">
+        <v>9</v>
+      </c>
+      <c r="F30" s="55">
         <v>9</v>
       </c>
       <c r="G30" s="22">
         <v>6</v>
       </c>
-      <c r="H30" s="62">
-        <v>6</v>
-      </c>
-      <c r="I30" s="62">
+      <c r="H30" s="55">
+        <v>6</v>
+      </c>
+      <c r="I30" s="55">
         <v>9</v>
       </c>
       <c r="J30" s="24">
         <v>9</v>
       </c>
-      <c r="K30" s="62">
-        <v>6</v>
-      </c>
-      <c r="L30" s="62">
-        <v>6</v>
-      </c>
-      <c r="M30" s="62">
-        <v>9</v>
-      </c>
-      <c r="N30" s="62">
+      <c r="K30" s="55">
+        <v>6</v>
+      </c>
+      <c r="L30" s="55">
+        <v>6</v>
+      </c>
+      <c r="M30" s="55">
+        <v>9</v>
+      </c>
+      <c r="N30" s="55">
         <v>9</v>
       </c>
       <c r="O30" s="25">
@@ -3465,40 +3466,40 @@
       <c r="B32" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="62">
-        <v>3</v>
-      </c>
-      <c r="D32" s="62">
-        <v>3</v>
-      </c>
-      <c r="E32" s="62">
-        <v>12</v>
-      </c>
-      <c r="F32" s="62">
+      <c r="C32" s="55">
+        <v>3</v>
+      </c>
+      <c r="D32" s="55">
+        <v>3</v>
+      </c>
+      <c r="E32" s="55">
+        <v>12</v>
+      </c>
+      <c r="F32" s="55">
         <v>6</v>
       </c>
       <c r="G32" s="22">
         <v>9</v>
       </c>
-      <c r="H32" s="62">
-        <v>6</v>
-      </c>
-      <c r="I32" s="62">
+      <c r="H32" s="55">
+        <v>6</v>
+      </c>
+      <c r="I32" s="55">
         <v>12</v>
       </c>
       <c r="J32" s="24">
         <v>6</v>
       </c>
-      <c r="K32" s="62">
-        <v>9</v>
-      </c>
-      <c r="L32" s="62">
-        <v>6</v>
-      </c>
-      <c r="M32" s="62">
-        <v>12</v>
-      </c>
-      <c r="N32" s="62">
+      <c r="K32" s="55">
+        <v>9</v>
+      </c>
+      <c r="L32" s="55">
+        <v>6</v>
+      </c>
+      <c r="M32" s="55">
+        <v>12</v>
+      </c>
+      <c r="N32" s="55">
         <v>6</v>
       </c>
       <c r="O32" s="25">
@@ -3528,40 +3529,40 @@
       <c r="B33" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="62">
-        <v>9</v>
-      </c>
-      <c r="D33" s="62">
-        <v>9</v>
-      </c>
-      <c r="E33" s="62">
-        <v>9</v>
-      </c>
-      <c r="F33" s="62">
+      <c r="C33" s="55">
+        <v>9</v>
+      </c>
+      <c r="D33" s="55">
+        <v>9</v>
+      </c>
+      <c r="E33" s="55">
+        <v>9</v>
+      </c>
+      <c r="F33" s="55">
         <v>6</v>
       </c>
       <c r="G33" s="22">
         <v>9</v>
       </c>
-      <c r="H33" s="62">
-        <v>9</v>
-      </c>
-      <c r="I33" s="62">
+      <c r="H33" s="55">
+        <v>9</v>
+      </c>
+      <c r="I33" s="55">
         <v>9</v>
       </c>
       <c r="J33" s="24">
         <v>6</v>
       </c>
-      <c r="K33" s="62">
-        <v>9</v>
-      </c>
-      <c r="L33" s="62">
-        <v>9</v>
-      </c>
-      <c r="M33" s="62">
-        <v>9</v>
-      </c>
-      <c r="N33" s="62">
+      <c r="K33" s="55">
+        <v>9</v>
+      </c>
+      <c r="L33" s="55">
+        <v>9</v>
+      </c>
+      <c r="M33" s="55">
+        <v>9</v>
+      </c>
+      <c r="N33" s="55">
         <v>6</v>
       </c>
       <c r="O33" s="25">
@@ -3591,40 +3592,40 @@
       <c r="B34" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="62">
-        <v>6</v>
-      </c>
-      <c r="D34" s="62">
-        <v>12</v>
-      </c>
-      <c r="E34" s="62">
-        <v>9</v>
-      </c>
-      <c r="F34" s="62">
+      <c r="C34" s="55">
+        <v>6</v>
+      </c>
+      <c r="D34" s="55">
+        <v>12</v>
+      </c>
+      <c r="E34" s="55">
+        <v>9</v>
+      </c>
+      <c r="F34" s="55">
         <v>9</v>
       </c>
       <c r="G34" s="22">
         <v>9</v>
       </c>
-      <c r="H34" s="62">
-        <v>12</v>
-      </c>
-      <c r="I34" s="62">
+      <c r="H34" s="55">
+        <v>12</v>
+      </c>
+      <c r="I34" s="55">
         <v>9</v>
       </c>
       <c r="J34" s="24">
         <v>9</v>
       </c>
-      <c r="K34" s="62">
-        <v>9</v>
-      </c>
-      <c r="L34" s="62">
-        <v>12</v>
-      </c>
-      <c r="M34" s="62">
-        <v>9</v>
-      </c>
-      <c r="N34" s="62">
+      <c r="K34" s="55">
+        <v>9</v>
+      </c>
+      <c r="L34" s="55">
+        <v>12</v>
+      </c>
+      <c r="M34" s="55">
+        <v>9</v>
+      </c>
+      <c r="N34" s="55">
         <v>9</v>
       </c>
       <c r="O34" s="25">
@@ -3679,40 +3680,40 @@
       <c r="B36" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="62">
-        <v>9</v>
-      </c>
-      <c r="D36" s="62">
-        <v>12</v>
-      </c>
-      <c r="E36" s="62">
+      <c r="C36" s="55">
+        <v>9</v>
+      </c>
+      <c r="D36" s="55">
+        <v>12</v>
+      </c>
+      <c r="E36" s="55">
         <v>18</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="55">
         <v>15</v>
       </c>
       <c r="G36" s="22">
         <v>15</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="55">
         <v>15</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="55">
         <v>18</v>
       </c>
       <c r="J36" s="24">
         <v>15</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="55">
         <v>15</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="55">
         <v>15</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="55">
         <v>18</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="55">
         <v>15</v>
       </c>
       <c r="O36" s="25">
@@ -3742,40 +3743,40 @@
       <c r="B37" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="55">
         <v>18</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="55">
         <v>15</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="55">
         <v>24</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="55">
         <v>21</v>
       </c>
       <c r="G37" s="22">
         <v>18</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="55">
         <v>15</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="55">
         <v>21</v>
       </c>
       <c r="J37" s="24">
         <v>18</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="55">
         <v>18</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="55">
         <v>15</v>
       </c>
-      <c r="M37" s="62">
+      <c r="M37" s="55">
         <v>21</v>
       </c>
-      <c r="N37" s="62">
+      <c r="N37" s="55">
         <v>18</v>
       </c>
       <c r="O37" s="25">
@@ -3805,40 +3806,40 @@
       <c r="B38" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="62">
-        <v>6</v>
-      </c>
-      <c r="D38" s="62">
-        <v>12</v>
-      </c>
-      <c r="E38" s="62">
-        <v>6</v>
-      </c>
-      <c r="F38" s="62">
+      <c r="C38" s="55">
+        <v>6</v>
+      </c>
+      <c r="D38" s="55">
+        <v>12</v>
+      </c>
+      <c r="E38" s="55">
+        <v>6</v>
+      </c>
+      <c r="F38" s="55">
         <v>9</v>
       </c>
       <c r="G38" s="22">
         <v>6</v>
       </c>
-      <c r="H38" s="62">
-        <v>9</v>
-      </c>
-      <c r="I38" s="62">
+      <c r="H38" s="55">
+        <v>9</v>
+      </c>
+      <c r="I38" s="55">
         <v>9</v>
       </c>
       <c r="J38" s="24">
         <v>9</v>
       </c>
-      <c r="K38" s="62">
-        <v>6</v>
-      </c>
-      <c r="L38" s="62">
-        <v>9</v>
-      </c>
-      <c r="M38" s="62">
-        <v>9</v>
-      </c>
-      <c r="N38" s="62">
+      <c r="K38" s="55">
+        <v>6</v>
+      </c>
+      <c r="L38" s="55">
+        <v>9</v>
+      </c>
+      <c r="M38" s="55">
+        <v>9</v>
+      </c>
+      <c r="N38" s="55">
         <v>9</v>
       </c>
       <c r="O38" s="25">
@@ -3893,40 +3894,40 @@
       <c r="B40" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="62">
-        <v>6</v>
-      </c>
-      <c r="D40" s="62">
-        <v>9</v>
-      </c>
-      <c r="E40" s="62">
-        <v>12</v>
-      </c>
-      <c r="F40" s="62">
+      <c r="C40" s="55">
+        <v>6</v>
+      </c>
+      <c r="D40" s="55">
+        <v>9</v>
+      </c>
+      <c r="E40" s="55">
+        <v>12</v>
+      </c>
+      <c r="F40" s="55">
         <v>6</v>
       </c>
       <c r="G40" s="22">
         <v>9</v>
       </c>
-      <c r="H40" s="62">
-        <v>9</v>
-      </c>
-      <c r="I40" s="62">
+      <c r="H40" s="55">
+        <v>9</v>
+      </c>
+      <c r="I40" s="55">
         <v>12</v>
       </c>
       <c r="J40" s="24">
         <v>6</v>
       </c>
-      <c r="K40" s="62">
-        <v>9</v>
-      </c>
-      <c r="L40" s="62">
-        <v>9</v>
-      </c>
-      <c r="M40" s="62">
-        <v>12</v>
-      </c>
-      <c r="N40" s="62">
+      <c r="K40" s="55">
+        <v>9</v>
+      </c>
+      <c r="L40" s="55">
+        <v>9</v>
+      </c>
+      <c r="M40" s="55">
+        <v>12</v>
+      </c>
+      <c r="N40" s="55">
         <v>6</v>
       </c>
       <c r="O40" s="25">
@@ -3956,40 +3957,40 @@
       <c r="B41" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="62">
-        <v>9</v>
-      </c>
-      <c r="D41" s="62">
-        <v>9</v>
-      </c>
-      <c r="E41" s="62">
-        <v>9</v>
-      </c>
-      <c r="F41" s="62">
+      <c r="C41" s="55">
+        <v>9</v>
+      </c>
+      <c r="D41" s="55">
+        <v>9</v>
+      </c>
+      <c r="E41" s="55">
+        <v>9</v>
+      </c>
+      <c r="F41" s="55">
         <v>12</v>
       </c>
       <c r="G41" s="22">
         <v>9</v>
       </c>
-      <c r="H41" s="62">
-        <v>9</v>
-      </c>
-      <c r="I41" s="62">
+      <c r="H41" s="55">
+        <v>9</v>
+      </c>
+      <c r="I41" s="55">
         <v>9</v>
       </c>
       <c r="J41" s="24">
         <v>12</v>
       </c>
-      <c r="K41" s="62">
-        <v>9</v>
-      </c>
-      <c r="L41" s="62">
-        <v>9</v>
-      </c>
-      <c r="M41" s="62">
-        <v>9</v>
-      </c>
-      <c r="N41" s="62">
+      <c r="K41" s="55">
+        <v>9</v>
+      </c>
+      <c r="L41" s="55">
+        <v>9</v>
+      </c>
+      <c r="M41" s="55">
+        <v>9</v>
+      </c>
+      <c r="N41" s="55">
         <v>12</v>
       </c>
       <c r="O41" s="25">
@@ -4019,40 +4020,40 @@
       <c r="B42" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="62">
-        <v>3</v>
-      </c>
-      <c r="D42" s="62">
-        <v>3</v>
-      </c>
-      <c r="E42" s="62">
-        <v>6</v>
-      </c>
-      <c r="F42" s="62">
+      <c r="C42" s="55">
+        <v>3</v>
+      </c>
+      <c r="D42" s="55">
+        <v>3</v>
+      </c>
+      <c r="E42" s="55">
+        <v>6</v>
+      </c>
+      <c r="F42" s="55">
         <v>6</v>
       </c>
       <c r="G42" s="22">
         <v>3</v>
       </c>
-      <c r="H42" s="62">
-        <v>3</v>
-      </c>
-      <c r="I42" s="62">
+      <c r="H42" s="55">
+        <v>3</v>
+      </c>
+      <c r="I42" s="55">
         <v>6</v>
       </c>
       <c r="J42" s="24">
         <v>6</v>
       </c>
-      <c r="K42" s="62">
-        <v>3</v>
-      </c>
-      <c r="L42" s="62">
-        <v>3</v>
-      </c>
-      <c r="M42" s="62">
-        <v>6</v>
-      </c>
-      <c r="N42" s="62">
+      <c r="K42" s="55">
+        <v>3</v>
+      </c>
+      <c r="L42" s="55">
+        <v>3</v>
+      </c>
+      <c r="M42" s="55">
+        <v>6</v>
+      </c>
+      <c r="N42" s="55">
         <v>6</v>
       </c>
       <c r="O42" s="25">
@@ -4107,40 +4108,40 @@
       <c r="B44" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="62">
-        <v>6</v>
-      </c>
-      <c r="D44" s="62">
-        <v>6</v>
-      </c>
-      <c r="E44" s="62">
-        <v>9</v>
-      </c>
-      <c r="F44" s="62">
+      <c r="C44" s="55">
+        <v>6</v>
+      </c>
+      <c r="D44" s="55">
+        <v>6</v>
+      </c>
+      <c r="E44" s="55">
+        <v>9</v>
+      </c>
+      <c r="F44" s="55">
         <v>3</v>
       </c>
       <c r="G44" s="22">
         <v>6</v>
       </c>
-      <c r="H44" s="62">
-        <v>6</v>
-      </c>
-      <c r="I44" s="62">
+      <c r="H44" s="55">
+        <v>6</v>
+      </c>
+      <c r="I44" s="55">
         <v>9</v>
       </c>
       <c r="J44" s="24">
         <v>3</v>
       </c>
-      <c r="K44" s="62">
-        <v>6</v>
-      </c>
-      <c r="L44" s="62">
-        <v>6</v>
-      </c>
-      <c r="M44" s="62">
-        <v>9</v>
-      </c>
-      <c r="N44" s="62">
+      <c r="K44" s="55">
+        <v>6</v>
+      </c>
+      <c r="L44" s="55">
+        <v>6</v>
+      </c>
+      <c r="M44" s="55">
+        <v>9</v>
+      </c>
+      <c r="N44" s="55">
         <v>3</v>
       </c>
       <c r="O44" s="25">
@@ -4170,40 +4171,40 @@
       <c r="B45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="62">
-        <v>9</v>
-      </c>
-      <c r="D45" s="62">
-        <v>9</v>
-      </c>
-      <c r="E45" s="62">
-        <v>9</v>
-      </c>
-      <c r="F45" s="62">
+      <c r="C45" s="55">
+        <v>9</v>
+      </c>
+      <c r="D45" s="55">
+        <v>9</v>
+      </c>
+      <c r="E45" s="55">
+        <v>9</v>
+      </c>
+      <c r="F45" s="55">
         <v>6</v>
       </c>
       <c r="G45" s="22">
         <v>9</v>
       </c>
-      <c r="H45" s="62">
-        <v>6</v>
-      </c>
-      <c r="I45" s="62">
+      <c r="H45" s="55">
+        <v>6</v>
+      </c>
+      <c r="I45" s="55">
         <v>9</v>
       </c>
       <c r="J45" s="24">
         <v>6</v>
       </c>
-      <c r="K45" s="62">
-        <v>9</v>
-      </c>
-      <c r="L45" s="62">
-        <v>6</v>
-      </c>
-      <c r="M45" s="62">
-        <v>9</v>
-      </c>
-      <c r="N45" s="62">
+      <c r="K45" s="55">
+        <v>9</v>
+      </c>
+      <c r="L45" s="55">
+        <v>6</v>
+      </c>
+      <c r="M45" s="55">
+        <v>9</v>
+      </c>
+      <c r="N45" s="55">
         <v>6</v>
       </c>
       <c r="O45" s="25">
@@ -4233,40 +4234,40 @@
       <c r="B46" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="62">
-        <v>3</v>
-      </c>
-      <c r="D46" s="62">
-        <v>9</v>
-      </c>
-      <c r="E46" s="62">
-        <v>6</v>
-      </c>
-      <c r="F46" s="62">
+      <c r="C46" s="55">
+        <v>3</v>
+      </c>
+      <c r="D46" s="55">
+        <v>9</v>
+      </c>
+      <c r="E46" s="55">
+        <v>6</v>
+      </c>
+      <c r="F46" s="55">
         <v>6</v>
       </c>
       <c r="G46" s="22">
         <v>6</v>
       </c>
-      <c r="H46" s="62">
-        <v>9</v>
-      </c>
-      <c r="I46" s="62">
+      <c r="H46" s="55">
+        <v>9</v>
+      </c>
+      <c r="I46" s="55">
         <v>6</v>
       </c>
       <c r="J46" s="24">
         <v>6</v>
       </c>
-      <c r="K46" s="62">
-        <v>6</v>
-      </c>
-      <c r="L46" s="62">
-        <v>9</v>
-      </c>
-      <c r="M46" s="62">
-        <v>6</v>
-      </c>
-      <c r="N46" s="62">
+      <c r="K46" s="55">
+        <v>6</v>
+      </c>
+      <c r="L46" s="55">
+        <v>9</v>
+      </c>
+      <c r="M46" s="55">
+        <v>6</v>
+      </c>
+      <c r="N46" s="55">
         <v>6</v>
       </c>
       <c r="O46" s="25">
@@ -4321,40 +4322,40 @@
       <c r="B48" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="62">
-        <v>12</v>
-      </c>
-      <c r="D48" s="62">
-        <v>6</v>
-      </c>
-      <c r="E48" s="62">
-        <v>12</v>
-      </c>
-      <c r="F48" s="62">
+      <c r="C48" s="55">
+        <v>12</v>
+      </c>
+      <c r="D48" s="55">
+        <v>6</v>
+      </c>
+      <c r="E48" s="55">
+        <v>12</v>
+      </c>
+      <c r="F48" s="55">
         <v>9</v>
       </c>
       <c r="G48" s="22">
         <v>9</v>
       </c>
-      <c r="H48" s="62">
-        <v>6</v>
-      </c>
-      <c r="I48" s="62">
+      <c r="H48" s="55">
+        <v>6</v>
+      </c>
+      <c r="I48" s="55">
         <v>12</v>
       </c>
       <c r="J48" s="24">
         <v>9</v>
       </c>
-      <c r="K48" s="62">
-        <v>9</v>
-      </c>
-      <c r="L48" s="62">
-        <v>6</v>
-      </c>
-      <c r="M48" s="62">
-        <v>12</v>
-      </c>
-      <c r="N48" s="62">
+      <c r="K48" s="55">
+        <v>9</v>
+      </c>
+      <c r="L48" s="55">
+        <v>6</v>
+      </c>
+      <c r="M48" s="55">
+        <v>12</v>
+      </c>
+      <c r="N48" s="55">
         <v>9</v>
       </c>
       <c r="O48" s="25">
@@ -4384,40 +4385,40 @@
       <c r="B49" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="62">
-        <v>12</v>
-      </c>
-      <c r="D49" s="62">
+      <c r="C49" s="55">
+        <v>12</v>
+      </c>
+      <c r="D49" s="55">
         <v>18</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="55">
         <v>15</v>
       </c>
-      <c r="F49" s="62">
+      <c r="F49" s="55">
         <v>15</v>
       </c>
       <c r="G49" s="22">
         <v>15</v>
       </c>
-      <c r="H49" s="62">
+      <c r="H49" s="55">
         <v>18</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="55">
         <v>18</v>
       </c>
       <c r="J49" s="24">
         <v>15</v>
       </c>
-      <c r="K49" s="62">
+      <c r="K49" s="55">
         <v>15</v>
       </c>
-      <c r="L49" s="62">
+      <c r="L49" s="55">
         <v>18</v>
       </c>
-      <c r="M49" s="62">
+      <c r="M49" s="55">
         <v>18</v>
       </c>
-      <c r="N49" s="62">
+      <c r="N49" s="55">
         <v>15</v>
       </c>
       <c r="O49" s="25">
@@ -4447,40 +4448,40 @@
       <c r="B50" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="62">
-        <v>6</v>
-      </c>
-      <c r="D50" s="62">
-        <v>12</v>
-      </c>
-      <c r="E50" s="62">
-        <v>6</v>
-      </c>
-      <c r="F50" s="62">
+      <c r="C50" s="55">
+        <v>6</v>
+      </c>
+      <c r="D50" s="55">
+        <v>12</v>
+      </c>
+      <c r="E50" s="55">
+        <v>6</v>
+      </c>
+      <c r="F50" s="55">
         <v>12</v>
       </c>
       <c r="G50" s="22">
         <v>9</v>
       </c>
-      <c r="H50" s="62">
-        <v>9</v>
-      </c>
-      <c r="I50" s="62">
+      <c r="H50" s="55">
+        <v>9</v>
+      </c>
+      <c r="I50" s="55">
         <v>12</v>
       </c>
       <c r="J50" s="24">
         <v>12</v>
       </c>
-      <c r="K50" s="62">
-        <v>9</v>
-      </c>
-      <c r="L50" s="62">
-        <v>9</v>
-      </c>
-      <c r="M50" s="62">
-        <v>12</v>
-      </c>
-      <c r="N50" s="62">
+      <c r="K50" s="55">
+        <v>9</v>
+      </c>
+      <c r="L50" s="55">
+        <v>9</v>
+      </c>
+      <c r="M50" s="55">
+        <v>12</v>
+      </c>
+      <c r="N50" s="55">
         <v>12</v>
       </c>
       <c r="O50" s="25">
@@ -4535,40 +4536,40 @@
       <c r="B52" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="62">
-        <v>9</v>
-      </c>
-      <c r="D52" s="62">
-        <v>12</v>
-      </c>
-      <c r="E52" s="62">
+      <c r="C52" s="55">
+        <v>9</v>
+      </c>
+      <c r="D52" s="55">
+        <v>12</v>
+      </c>
+      <c r="E52" s="55">
         <v>15</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="55">
         <v>9</v>
       </c>
       <c r="G52" s="22">
         <v>9</v>
       </c>
-      <c r="H52" s="62">
-        <v>12</v>
-      </c>
-      <c r="I52" s="62">
+      <c r="H52" s="55">
+        <v>12</v>
+      </c>
+      <c r="I52" s="55">
         <v>12</v>
       </c>
       <c r="J52" s="24">
         <v>9</v>
       </c>
-      <c r="K52" s="62">
-        <v>9</v>
-      </c>
-      <c r="L52" s="62">
-        <v>12</v>
-      </c>
-      <c r="M52" s="62">
-        <v>12</v>
-      </c>
-      <c r="N52" s="62">
+      <c r="K52" s="55">
+        <v>9</v>
+      </c>
+      <c r="L52" s="55">
+        <v>12</v>
+      </c>
+      <c r="M52" s="55">
+        <v>12</v>
+      </c>
+      <c r="N52" s="55">
         <v>9</v>
       </c>
       <c r="O52" s="25">
@@ -4598,40 +4599,40 @@
       <c r="B53" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="62">
+      <c r="C53" s="55">
         <v>18</v>
       </c>
-      <c r="D53" s="62">
+      <c r="D53" s="55">
         <v>15</v>
       </c>
-      <c r="E53" s="62">
+      <c r="E53" s="55">
         <v>24</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="55">
         <v>24</v>
       </c>
       <c r="G53" s="22">
         <v>21</v>
       </c>
-      <c r="H53" s="62">
+      <c r="H53" s="55">
         <v>18</v>
       </c>
-      <c r="I53" s="62">
+      <c r="I53" s="55">
         <v>21</v>
       </c>
       <c r="J53" s="24">
         <v>21</v>
       </c>
-      <c r="K53" s="62">
+      <c r="K53" s="55">
         <v>21</v>
       </c>
-      <c r="L53" s="62">
+      <c r="L53" s="55">
         <v>18</v>
       </c>
-      <c r="M53" s="62">
+      <c r="M53" s="55">
         <v>21</v>
       </c>
-      <c r="N53" s="62">
+      <c r="N53" s="55">
         <v>21</v>
       </c>
       <c r="O53" s="25">
@@ -4661,40 +4662,40 @@
       <c r="B54" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="62">
-        <v>6</v>
-      </c>
-      <c r="D54" s="62">
+      <c r="C54" s="55">
+        <v>6</v>
+      </c>
+      <c r="D54" s="55">
         <v>21</v>
       </c>
-      <c r="E54" s="62">
-        <v>6</v>
-      </c>
-      <c r="F54" s="62">
+      <c r="E54" s="55">
+        <v>6</v>
+      </c>
+      <c r="F54" s="55">
         <v>21</v>
       </c>
       <c r="G54" s="22">
         <v>12</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="55">
         <v>15</v>
       </c>
-      <c r="I54" s="62">
+      <c r="I54" s="55">
         <v>9</v>
       </c>
       <c r="J54" s="24">
         <v>18</v>
       </c>
-      <c r="K54" s="62">
-        <v>12</v>
-      </c>
-      <c r="L54" s="62">
+      <c r="K54" s="55">
+        <v>12</v>
+      </c>
+      <c r="L54" s="55">
         <v>15</v>
       </c>
-      <c r="M54" s="62">
-        <v>9</v>
-      </c>
-      <c r="N54" s="62">
+      <c r="M54" s="55">
+        <v>9</v>
+      </c>
+      <c r="N54" s="55">
         <v>18</v>
       </c>
       <c r="O54" s="25">
@@ -4724,40 +4725,40 @@
       <c r="B55" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="62">
-        <v>3</v>
-      </c>
-      <c r="D55" s="62">
-        <v>3</v>
-      </c>
-      <c r="E55" s="62">
-        <v>6</v>
-      </c>
-      <c r="F55" s="62">
+      <c r="C55" s="55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="55">
+        <v>3</v>
+      </c>
+      <c r="E55" s="55">
+        <v>6</v>
+      </c>
+      <c r="F55" s="55">
         <v>6</v>
       </c>
       <c r="G55" s="22">
         <v>3</v>
       </c>
-      <c r="H55" s="62">
-        <v>3</v>
-      </c>
-      <c r="I55" s="62">
+      <c r="H55" s="55">
+        <v>3</v>
+      </c>
+      <c r="I55" s="55">
         <v>6</v>
       </c>
       <c r="J55" s="24">
         <v>6</v>
       </c>
-      <c r="K55" s="62">
-        <v>3</v>
-      </c>
-      <c r="L55" s="62">
-        <v>3</v>
-      </c>
-      <c r="M55" s="62">
-        <v>6</v>
-      </c>
-      <c r="N55" s="62">
+      <c r="K55" s="55">
+        <v>3</v>
+      </c>
+      <c r="L55" s="55">
+        <v>3</v>
+      </c>
+      <c r="M55" s="55">
+        <v>6</v>
+      </c>
+      <c r="N55" s="55">
         <v>6</v>
       </c>
       <c r="O55" s="25">
@@ -4812,40 +4813,40 @@
       <c r="B57" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="62">
-        <v>12</v>
-      </c>
-      <c r="D57" s="62">
+      <c r="C57" s="55">
+        <v>12</v>
+      </c>
+      <c r="D57" s="55">
         <v>18</v>
       </c>
-      <c r="E57" s="62">
+      <c r="E57" s="55">
         <v>18</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="55">
         <v>15</v>
       </c>
       <c r="G57" s="22">
         <v>12</v>
       </c>
-      <c r="H57" s="62">
+      <c r="H57" s="55">
         <v>18</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="55">
         <v>18</v>
       </c>
       <c r="J57" s="24">
         <v>15</v>
       </c>
-      <c r="K57" s="62">
-        <v>12</v>
-      </c>
-      <c r="L57" s="62">
+      <c r="K57" s="55">
+        <v>12</v>
+      </c>
+      <c r="L57" s="55">
         <v>18</v>
       </c>
-      <c r="M57" s="62">
+      <c r="M57" s="55">
         <v>18</v>
       </c>
-      <c r="N57" s="62">
+      <c r="N57" s="55">
         <v>15</v>
       </c>
       <c r="O57" s="25">
@@ -4875,40 +4876,40 @@
       <c r="B58" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="62">
+      <c r="C58" s="55">
         <v>18</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="55">
         <v>24</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="55">
         <v>21</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="55">
         <v>30</v>
       </c>
       <c r="G58" s="22">
         <v>21</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="55">
         <v>27</v>
       </c>
-      <c r="I58" s="62">
+      <c r="I58" s="55">
         <v>21</v>
       </c>
       <c r="J58" s="24">
         <v>27</v>
       </c>
-      <c r="K58" s="62">
+      <c r="K58" s="55">
         <v>21</v>
       </c>
-      <c r="L58" s="62">
+      <c r="L58" s="55">
         <v>27</v>
       </c>
-      <c r="M58" s="62">
+      <c r="M58" s="55">
         <v>21</v>
       </c>
-      <c r="N58" s="62">
+      <c r="N58" s="55">
         <v>27</v>
       </c>
       <c r="O58" s="25">
@@ -4938,40 +4939,40 @@
       <c r="B59" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="62">
-        <v>6</v>
-      </c>
-      <c r="D59" s="62">
-        <v>9</v>
-      </c>
-      <c r="E59" s="62">
-        <v>9</v>
-      </c>
-      <c r="F59" s="62">
+      <c r="C59" s="55">
+        <v>6</v>
+      </c>
+      <c r="D59" s="55">
+        <v>9</v>
+      </c>
+      <c r="E59" s="55">
+        <v>9</v>
+      </c>
+      <c r="F59" s="55">
         <v>12</v>
       </c>
       <c r="G59" s="22">
         <v>6</v>
       </c>
-      <c r="H59" s="62">
-        <v>9</v>
-      </c>
-      <c r="I59" s="62">
+      <c r="H59" s="55">
+        <v>9</v>
+      </c>
+      <c r="I59" s="55">
         <v>9</v>
       </c>
       <c r="J59" s="24">
         <v>12</v>
       </c>
-      <c r="K59" s="62">
-        <v>6</v>
-      </c>
-      <c r="L59" s="62">
-        <v>9</v>
-      </c>
-      <c r="M59" s="62">
-        <v>9</v>
-      </c>
-      <c r="N59" s="62">
+      <c r="K59" s="55">
+        <v>6</v>
+      </c>
+      <c r="L59" s="55">
+        <v>9</v>
+      </c>
+      <c r="M59" s="55">
+        <v>9</v>
+      </c>
+      <c r="N59" s="55">
         <v>12</v>
       </c>
       <c r="O59" s="25">
@@ -5026,40 +5027,40 @@
       <c r="B61" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="62">
-        <v>9</v>
-      </c>
-      <c r="D61" s="62">
+      <c r="C61" s="55">
+        <v>9</v>
+      </c>
+      <c r="D61" s="55">
         <v>18</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="55">
         <v>15</v>
       </c>
-      <c r="F61" s="62">
+      <c r="F61" s="55">
         <v>21</v>
       </c>
       <c r="G61" s="22">
         <v>15</v>
       </c>
-      <c r="H61" s="62">
+      <c r="H61" s="55">
         <v>15</v>
       </c>
-      <c r="I61" s="62">
+      <c r="I61" s="55">
         <v>15</v>
       </c>
       <c r="J61" s="24">
         <v>21</v>
       </c>
-      <c r="K61" s="62">
+      <c r="K61" s="55">
         <v>15</v>
       </c>
-      <c r="L61" s="62">
+      <c r="L61" s="55">
         <v>15</v>
       </c>
-      <c r="M61" s="62">
+      <c r="M61" s="55">
         <v>15</v>
       </c>
-      <c r="N61" s="62">
+      <c r="N61" s="55">
         <v>21</v>
       </c>
       <c r="O61" s="25">
@@ -5089,40 +5090,40 @@
       <c r="B62" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="62">
-        <v>12</v>
-      </c>
-      <c r="D62" s="62">
+      <c r="C62" s="55">
+        <v>12</v>
+      </c>
+      <c r="D62" s="55">
         <v>15</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="55">
         <v>15</v>
       </c>
-      <c r="F62" s="62">
+      <c r="F62" s="55">
         <v>21</v>
       </c>
       <c r="G62" s="22">
         <v>12</v>
       </c>
-      <c r="H62" s="62">
+      <c r="H62" s="55">
         <v>15</v>
       </c>
-      <c r="I62" s="62">
+      <c r="I62" s="55">
         <v>18</v>
       </c>
       <c r="J62" s="24">
         <v>18</v>
       </c>
-      <c r="K62" s="62">
-        <v>12</v>
-      </c>
-      <c r="L62" s="62">
+      <c r="K62" s="55">
+        <v>12</v>
+      </c>
+      <c r="L62" s="55">
         <v>15</v>
       </c>
-      <c r="M62" s="62">
+      <c r="M62" s="55">
         <v>18</v>
       </c>
-      <c r="N62" s="62">
+      <c r="N62" s="55">
         <v>18</v>
       </c>
       <c r="O62" s="25">
@@ -5152,40 +5153,40 @@
       <c r="B63" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="62">
-        <v>3</v>
-      </c>
-      <c r="D63" s="62">
+      <c r="C63" s="55">
+        <v>3</v>
+      </c>
+      <c r="D63" s="55">
         <v>18</v>
       </c>
-      <c r="E63" s="62">
-        <v>6</v>
-      </c>
-      <c r="F63" s="62">
+      <c r="E63" s="55">
+        <v>6</v>
+      </c>
+      <c r="F63" s="55">
         <v>21</v>
       </c>
       <c r="G63" s="22">
         <v>9</v>
       </c>
-      <c r="H63" s="62">
-        <v>12</v>
-      </c>
-      <c r="I63" s="62">
+      <c r="H63" s="55">
+        <v>12</v>
+      </c>
+      <c r="I63" s="55">
         <v>9</v>
       </c>
       <c r="J63" s="24">
         <v>18</v>
       </c>
-      <c r="K63" s="62">
-        <v>9</v>
-      </c>
-      <c r="L63" s="62">
-        <v>12</v>
-      </c>
-      <c r="M63" s="62">
-        <v>9</v>
-      </c>
-      <c r="N63" s="62">
+      <c r="K63" s="55">
+        <v>9</v>
+      </c>
+      <c r="L63" s="55">
+        <v>12</v>
+      </c>
+      <c r="M63" s="55">
+        <v>9</v>
+      </c>
+      <c r="N63" s="55">
         <v>18</v>
       </c>
       <c r="O63" s="25">
@@ -5240,40 +5241,40 @@
       <c r="B65" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="62">
-        <v>3</v>
-      </c>
-      <c r="D65" s="62">
+      <c r="C65" s="55">
+        <v>3</v>
+      </c>
+      <c r="D65" s="55">
         <v>15</v>
       </c>
-      <c r="E65" s="62">
-        <v>6</v>
-      </c>
-      <c r="F65" s="62">
+      <c r="E65" s="55">
+        <v>6</v>
+      </c>
+      <c r="F65" s="55">
         <v>24</v>
       </c>
       <c r="G65" s="22">
         <v>9</v>
       </c>
-      <c r="H65" s="62">
+      <c r="H65" s="55">
         <v>15</v>
       </c>
-      <c r="I65" s="62">
+      <c r="I65" s="55">
         <v>15</v>
       </c>
       <c r="J65" s="24">
         <v>18</v>
       </c>
-      <c r="K65" s="62">
-        <v>12</v>
-      </c>
-      <c r="L65" s="62">
+      <c r="K65" s="55">
+        <v>12</v>
+      </c>
+      <c r="L65" s="55">
         <v>15</v>
       </c>
-      <c r="M65" s="62">
+      <c r="M65" s="55">
         <v>15</v>
       </c>
-      <c r="N65" s="62">
+      <c r="N65" s="55">
         <v>18</v>
       </c>
       <c r="O65" s="25">
@@ -5303,40 +5304,40 @@
       <c r="B66" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="62">
+      <c r="C66" s="55">
         <v>1.5</v>
       </c>
-      <c r="D66" s="62">
-        <v>3</v>
-      </c>
-      <c r="E66" s="62">
-        <v>3</v>
-      </c>
-      <c r="F66" s="62">
+      <c r="D66" s="55">
+        <v>3</v>
+      </c>
+      <c r="E66" s="55">
+        <v>3</v>
+      </c>
+      <c r="F66" s="55">
         <v>3</v>
       </c>
       <c r="G66" s="22">
         <v>1.5</v>
       </c>
-      <c r="H66" s="62">
-        <v>3</v>
-      </c>
-      <c r="I66" s="62">
+      <c r="H66" s="55">
+        <v>3</v>
+      </c>
+      <c r="I66" s="55">
         <v>3</v>
       </c>
       <c r="J66" s="24">
         <v>3</v>
       </c>
-      <c r="K66" s="62">
+      <c r="K66" s="55">
         <v>1.5</v>
       </c>
-      <c r="L66" s="62">
-        <v>3</v>
-      </c>
-      <c r="M66" s="62">
-        <v>3</v>
-      </c>
-      <c r="N66" s="62">
+      <c r="L66" s="55">
+        <v>3</v>
+      </c>
+      <c r="M66" s="55">
+        <v>3</v>
+      </c>
+      <c r="N66" s="55">
         <v>3</v>
       </c>
       <c r="O66" s="25">
@@ -5366,40 +5367,40 @@
       <c r="B67" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="62">
-        <v>6</v>
-      </c>
-      <c r="D67" s="62">
-        <v>6</v>
-      </c>
-      <c r="E67" s="62">
-        <v>9</v>
-      </c>
-      <c r="F67" s="62">
+      <c r="C67" s="55">
+        <v>6</v>
+      </c>
+      <c r="D67" s="55">
+        <v>6</v>
+      </c>
+      <c r="E67" s="55">
+        <v>9</v>
+      </c>
+      <c r="F67" s="55">
         <v>9</v>
       </c>
       <c r="G67" s="22">
         <v>6</v>
       </c>
-      <c r="H67" s="62">
-        <v>6</v>
-      </c>
-      <c r="I67" s="62">
+      <c r="H67" s="55">
+        <v>6</v>
+      </c>
+      <c r="I67" s="55">
         <v>9</v>
       </c>
       <c r="J67" s="24">
         <v>9</v>
       </c>
-      <c r="K67" s="62">
-        <v>6</v>
-      </c>
-      <c r="L67" s="62">
-        <v>6</v>
-      </c>
-      <c r="M67" s="62">
-        <v>9</v>
-      </c>
-      <c r="N67" s="62">
+      <c r="K67" s="55">
+        <v>6</v>
+      </c>
+      <c r="L67" s="55">
+        <v>6</v>
+      </c>
+      <c r="M67" s="55">
+        <v>9</v>
+      </c>
+      <c r="N67" s="55">
         <v>9</v>
       </c>
       <c r="O67" s="25">
@@ -5429,40 +5430,40 @@
       <c r="B68" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="62">
-        <v>9</v>
-      </c>
-      <c r="D68" s="62">
-        <v>3</v>
-      </c>
-      <c r="E68" s="62">
-        <v>9</v>
-      </c>
-      <c r="F68" s="62">
+      <c r="C68" s="55">
+        <v>9</v>
+      </c>
+      <c r="D68" s="55">
+        <v>3</v>
+      </c>
+      <c r="E68" s="55">
+        <v>9</v>
+      </c>
+      <c r="F68" s="55">
         <v>3</v>
       </c>
       <c r="G68" s="22">
         <v>6</v>
       </c>
-      <c r="H68" s="62">
-        <v>6</v>
-      </c>
-      <c r="I68" s="62">
+      <c r="H68" s="55">
+        <v>6</v>
+      </c>
+      <c r="I68" s="55">
         <v>9</v>
       </c>
       <c r="J68" s="24">
         <v>3</v>
       </c>
-      <c r="K68" s="62">
-        <v>6</v>
-      </c>
-      <c r="L68" s="62">
-        <v>6</v>
-      </c>
-      <c r="M68" s="62">
-        <v>9</v>
-      </c>
-      <c r="N68" s="62">
+      <c r="K68" s="55">
+        <v>6</v>
+      </c>
+      <c r="L68" s="55">
+        <v>6</v>
+      </c>
+      <c r="M68" s="55">
+        <v>9</v>
+      </c>
+      <c r="N68" s="55">
         <v>3</v>
       </c>
       <c r="O68" s="25">
@@ -5492,40 +5493,40 @@
       <c r="B69" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="62">
+      <c r="C69" s="55">
         <v>60</v>
       </c>
-      <c r="D69" s="62">
+      <c r="D69" s="55">
         <v>60</v>
       </c>
-      <c r="E69" s="62">
+      <c r="E69" s="55">
         <v>105</v>
       </c>
-      <c r="F69" s="62">
+      <c r="F69" s="55">
         <v>45</v>
       </c>
       <c r="G69" s="22">
         <v>75</v>
       </c>
-      <c r="H69" s="62">
+      <c r="H69" s="55">
         <v>60</v>
       </c>
-      <c r="I69" s="62">
+      <c r="I69" s="55">
         <v>90</v>
       </c>
       <c r="J69" s="24">
         <v>60</v>
       </c>
-      <c r="K69" s="62">
+      <c r="K69" s="55">
         <v>75</v>
       </c>
-      <c r="L69" s="62">
+      <c r="L69" s="55">
         <v>60</v>
       </c>
-      <c r="M69" s="62">
+      <c r="M69" s="55">
         <v>90</v>
       </c>
-      <c r="N69" s="62">
+      <c r="N69" s="55">
         <v>60</v>
       </c>
       <c r="O69" s="25">
@@ -5555,40 +5556,40 @@
       <c r="B70" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C70" s="63">
-        <v>12</v>
-      </c>
-      <c r="D70" s="63">
+      <c r="C70" s="56">
+        <v>12</v>
+      </c>
+      <c r="D70" s="56">
         <v>15</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="56">
         <v>18</v>
       </c>
-      <c r="F70" s="63">
+      <c r="F70" s="56">
         <v>48</v>
       </c>
       <c r="G70" s="41">
         <v>15</v>
       </c>
-      <c r="H70" s="63">
+      <c r="H70" s="56">
         <v>16.5</v>
       </c>
-      <c r="I70" s="63">
+      <c r="I70" s="56">
         <v>18</v>
       </c>
       <c r="J70" s="47">
         <v>36</v>
       </c>
-      <c r="K70" s="63">
+      <c r="K70" s="56">
         <v>16.5</v>
       </c>
-      <c r="L70" s="63">
+      <c r="L70" s="56">
         <v>16.5</v>
       </c>
-      <c r="M70" s="63">
+      <c r="M70" s="56">
         <v>18</v>
       </c>
-      <c r="N70" s="63">
+      <c r="N70" s="56">
         <v>30</v>
       </c>
       <c r="O70" s="43">
@@ -5643,57 +5644,57 @@
       <c r="B72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="62">
-        <v>18</v>
-      </c>
-      <c r="D72" s="62">
-        <v>24</v>
-      </c>
-      <c r="E72" s="62">
-        <v>12</v>
-      </c>
-      <c r="F72" s="62">
-        <v>27</v>
+      <c r="C72" s="55">
+        <v>9</v>
+      </c>
+      <c r="D72" s="55">
+        <v>12</v>
+      </c>
+      <c r="E72" s="55">
+        <v>6</v>
+      </c>
+      <c r="F72" s="55">
+        <v>13.5</v>
       </c>
       <c r="G72" s="22">
-        <v>21</v>
-      </c>
-      <c r="H72" s="62">
-        <v>24</v>
-      </c>
-      <c r="I72" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H72" s="55">
+        <v>12</v>
+      </c>
+      <c r="I72" s="55">
+        <v>7.5</v>
       </c>
       <c r="J72" s="24">
-        <v>24</v>
-      </c>
-      <c r="K72" s="62">
-        <v>21</v>
-      </c>
-      <c r="L72" s="62">
-        <v>24</v>
-      </c>
-      <c r="M72" s="62">
-        <v>18</v>
-      </c>
-      <c r="N72" s="62">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="K72" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L72" s="55">
+        <v>12</v>
+      </c>
+      <c r="M72" s="55">
+        <v>9</v>
+      </c>
+      <c r="N72" s="55">
+        <v>12</v>
       </c>
       <c r="O72" s="25">
         <f>+AVERAGEIFS(K72:N72,K72:N72,"&gt;=0")</f>
-        <v>21.75</v>
+        <v>10.875</v>
       </c>
       <c r="P72" s="26">
         <f>+MEDIAN(K72:N72)</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q72" s="27">
         <f>+(MIN(K72:N72)+MAX(K72:N72)+4*O72)/6</f>
-        <v>21.5</v>
+        <v>10.75</v>
       </c>
       <c r="R72" s="28">
         <f>Q72*1.25*1.33</f>
-        <v>35.743749999999999</v>
+        <v>17.871874999999999</v>
       </c>
       <c r="S72" s="24" t="s">
         <v>281</v>
@@ -5706,57 +5707,57 @@
       <c r="B73" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="62">
-        <v>15</v>
-      </c>
-      <c r="D73" s="62">
-        <v>24</v>
-      </c>
-      <c r="E73" s="62">
-        <v>12</v>
-      </c>
-      <c r="F73" s="62">
-        <v>21</v>
+      <c r="C73" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="D73" s="55">
+        <v>12</v>
+      </c>
+      <c r="E73" s="55">
+        <v>6</v>
+      </c>
+      <c r="F73" s="55">
+        <v>10.5</v>
       </c>
       <c r="G73" s="22">
-        <v>15</v>
-      </c>
-      <c r="H73" s="62">
-        <v>21</v>
-      </c>
-      <c r="I73" s="62">
-        <v>18</v>
+        <v>7.5</v>
+      </c>
+      <c r="H73" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="I73" s="55">
+        <v>9</v>
       </c>
       <c r="J73" s="24">
-        <v>21</v>
-      </c>
-      <c r="K73" s="62">
-        <v>15</v>
-      </c>
-      <c r="L73" s="62">
-        <v>21</v>
-      </c>
-      <c r="M73" s="62">
-        <v>18</v>
-      </c>
-      <c r="N73" s="62">
-        <v>21</v>
+        <v>10.5</v>
+      </c>
+      <c r="K73" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="L73" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="M73" s="55">
+        <v>9</v>
+      </c>
+      <c r="N73" s="55">
+        <v>10.5</v>
       </c>
       <c r="O73" s="25">
         <f>+AVERAGEIFS(K73:N73,K73:N73,"&gt;=0")</f>
-        <v>18.75</v>
+        <v>9.375</v>
       </c>
       <c r="P73" s="26">
         <f>+MEDIAN(K73:N73)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q73" s="27">
         <f>+(MIN(K73:N73)+MAX(K73:N73)+4*O73)/6</f>
-        <v>18.5</v>
+        <v>9.25</v>
       </c>
       <c r="R73" s="28">
         <f>Q73*1.25*1.33</f>
-        <v>30.756250000000001</v>
+        <v>15.378125000000001</v>
       </c>
       <c r="S73" s="24" t="s">
         <v>281</v>
@@ -5769,57 +5770,57 @@
       <c r="B74" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="62">
-        <v>15</v>
-      </c>
-      <c r="D74" s="62">
-        <v>36</v>
-      </c>
-      <c r="E74" s="62">
-        <v>9</v>
-      </c>
-      <c r="F74" s="62">
-        <v>21</v>
+      <c r="C74" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="D74" s="55">
+        <v>18</v>
+      </c>
+      <c r="E74" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="F74" s="55">
+        <v>10.5</v>
       </c>
       <c r="G74" s="22">
-        <v>18</v>
-      </c>
-      <c r="H74" s="62">
-        <v>27</v>
-      </c>
-      <c r="I74" s="62">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="H74" s="55">
+        <v>13.5</v>
+      </c>
+      <c r="I74" s="55">
+        <v>7.5</v>
       </c>
       <c r="J74" s="24">
-        <v>21</v>
-      </c>
-      <c r="K74" s="62">
-        <v>18</v>
-      </c>
-      <c r="L74" s="62">
-        <v>24</v>
-      </c>
-      <c r="M74" s="62">
-        <v>18</v>
-      </c>
-      <c r="N74" s="62">
-        <v>21</v>
+        <v>10.5</v>
+      </c>
+      <c r="K74" s="55">
+        <v>9</v>
+      </c>
+      <c r="L74" s="55">
+        <v>12</v>
+      </c>
+      <c r="M74" s="55">
+        <v>9</v>
+      </c>
+      <c r="N74" s="55">
+        <v>10.5</v>
       </c>
       <c r="O74" s="25">
         <f>+AVERAGEIFS(K74:N74,K74:N74,"&gt;=0")</f>
-        <v>20.25</v>
+        <v>10.125</v>
       </c>
       <c r="P74" s="26">
         <f>+MEDIAN(K74:N74)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q74" s="27">
         <f>+(MIN(K74:N74)+MAX(K74:N74)+4*O74)/6</f>
-        <v>20.5</v>
+        <v>10.25</v>
       </c>
       <c r="R74" s="28">
         <f>Q74*1.25*1.33</f>
-        <v>34.081250000000004</v>
+        <v>17.040625000000002</v>
       </c>
       <c r="S74" s="24" t="s">
         <v>281</v>
@@ -5857,57 +5858,57 @@
       <c r="B76" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="62">
-        <v>18</v>
-      </c>
-      <c r="D76" s="62">
-        <v>24</v>
-      </c>
-      <c r="E76" s="62">
-        <v>12</v>
-      </c>
-      <c r="F76" s="62">
-        <v>27</v>
+      <c r="C76" s="55">
+        <v>9</v>
+      </c>
+      <c r="D76" s="55">
+        <v>12</v>
+      </c>
+      <c r="E76" s="55">
+        <v>6</v>
+      </c>
+      <c r="F76" s="55">
+        <v>13.5</v>
       </c>
       <c r="G76" s="22">
-        <v>21</v>
-      </c>
-      <c r="H76" s="62">
-        <v>24</v>
-      </c>
-      <c r="I76" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H76" s="55">
+        <v>12</v>
+      </c>
+      <c r="I76" s="55">
+        <v>7.5</v>
       </c>
       <c r="J76" s="24">
-        <v>24</v>
-      </c>
-      <c r="K76" s="62">
-        <v>21</v>
-      </c>
-      <c r="L76" s="62">
-        <v>24</v>
-      </c>
-      <c r="M76" s="62">
-        <v>18</v>
-      </c>
-      <c r="N76" s="62">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="K76" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L76" s="55">
+        <v>12</v>
+      </c>
+      <c r="M76" s="55">
+        <v>9</v>
+      </c>
+      <c r="N76" s="55">
+        <v>12</v>
       </c>
       <c r="O76" s="25">
         <f>+AVERAGEIFS(K76:N76,K76:N76,"&gt;=0")</f>
-        <v>21.75</v>
+        <v>10.875</v>
       </c>
       <c r="P76" s="26">
         <f>+MEDIAN(K76:N76)</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q76" s="27">
         <f>+(MIN(K76:N76)+MAX(K76:N76)+4*O76)/6</f>
-        <v>21.5</v>
+        <v>10.75</v>
       </c>
       <c r="R76" s="28">
         <f>Q76*1.25*1.33</f>
-        <v>35.743749999999999</v>
+        <v>17.871874999999999</v>
       </c>
       <c r="S76" s="24" t="s">
         <v>281</v>
@@ -5920,57 +5921,57 @@
       <c r="B77" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="62">
-        <v>12</v>
-      </c>
-      <c r="D77" s="62">
-        <v>24</v>
-      </c>
-      <c r="E77" s="62">
-        <v>12</v>
-      </c>
-      <c r="F77" s="62">
-        <v>27</v>
+      <c r="C77" s="55">
+        <v>6</v>
+      </c>
+      <c r="D77" s="55">
+        <v>12</v>
+      </c>
+      <c r="E77" s="55">
+        <v>6</v>
+      </c>
+      <c r="F77" s="55">
+        <v>13.5</v>
       </c>
       <c r="G77" s="22">
-        <v>18</v>
-      </c>
-      <c r="H77" s="62">
-        <v>24</v>
-      </c>
-      <c r="I77" s="62">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="H77" s="55">
+        <v>12</v>
+      </c>
+      <c r="I77" s="55">
+        <v>9</v>
       </c>
       <c r="J77" s="24">
-        <v>21</v>
-      </c>
-      <c r="K77" s="62">
-        <v>18</v>
-      </c>
-      <c r="L77" s="62">
-        <v>24</v>
-      </c>
-      <c r="M77" s="62">
-        <v>18</v>
-      </c>
-      <c r="N77" s="62">
-        <v>21</v>
+        <v>10.5</v>
+      </c>
+      <c r="K77" s="55">
+        <v>9</v>
+      </c>
+      <c r="L77" s="55">
+        <v>12</v>
+      </c>
+      <c r="M77" s="55">
+        <v>9</v>
+      </c>
+      <c r="N77" s="55">
+        <v>10.5</v>
       </c>
       <c r="O77" s="25">
         <f>+AVERAGEIFS(K77:N77,K77:N77,"&gt;=0")</f>
-        <v>20.25</v>
+        <v>10.125</v>
       </c>
       <c r="P77" s="26">
         <f>+MEDIAN(K77:N77)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q77" s="27">
         <f>+(MIN(K77:N77)+MAX(K77:N77)+4*O77)/6</f>
-        <v>20.5</v>
+        <v>10.25</v>
       </c>
       <c r="R77" s="28">
         <f>Q77*1.25*1.33</f>
-        <v>34.081250000000004</v>
+        <v>17.040625000000002</v>
       </c>
       <c r="S77" s="24" t="s">
         <v>281</v>
@@ -5983,57 +5984,57 @@
       <c r="B78" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="62">
-        <v>9</v>
-      </c>
-      <c r="D78" s="62">
-        <v>45</v>
-      </c>
-      <c r="E78" s="62">
-        <v>6</v>
-      </c>
-      <c r="F78" s="62">
-        <v>30</v>
+      <c r="C78" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="D78" s="55">
+        <v>22.5</v>
+      </c>
+      <c r="E78" s="55">
+        <v>3</v>
+      </c>
+      <c r="F78" s="55">
+        <v>15</v>
       </c>
       <c r="G78" s="22">
-        <v>18</v>
-      </c>
-      <c r="H78" s="62">
-        <v>30</v>
-      </c>
-      <c r="I78" s="62">
+        <v>9</v>
+      </c>
+      <c r="H78" s="55">
         <v>15</v>
       </c>
+      <c r="I78" s="55">
+        <v>7.5</v>
+      </c>
       <c r="J78" s="24">
-        <v>27</v>
-      </c>
-      <c r="K78" s="62">
-        <v>18</v>
-      </c>
-      <c r="L78" s="62">
-        <v>27</v>
-      </c>
-      <c r="M78" s="62">
-        <v>18</v>
-      </c>
-      <c r="N78" s="62">
-        <v>24</v>
+        <v>13.5</v>
+      </c>
+      <c r="K78" s="55">
+        <v>9</v>
+      </c>
+      <c r="L78" s="55">
+        <v>13.5</v>
+      </c>
+      <c r="M78" s="55">
+        <v>9</v>
+      </c>
+      <c r="N78" s="55">
+        <v>12</v>
       </c>
       <c r="O78" s="25">
         <f>+AVERAGEIFS(K78:N78,K78:N78,"&gt;=0")</f>
-        <v>21.75</v>
+        <v>10.875</v>
       </c>
       <c r="P78" s="26">
         <f>+MEDIAN(K78:N78)</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Q78" s="27">
         <f>+(MIN(K78:N78)+MAX(K78:N78)+4*O78)/6</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R78" s="28">
         <f>Q78*1.25*1.33</f>
-        <v>36.575000000000003</v>
+        <v>18.287500000000001</v>
       </c>
       <c r="S78" s="24" t="s">
         <v>281</v>
@@ -6071,57 +6072,57 @@
       <c r="B80" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="62">
-        <v>18</v>
-      </c>
-      <c r="D80" s="62">
-        <v>24</v>
-      </c>
-      <c r="E80" s="62">
-        <v>12</v>
-      </c>
-      <c r="F80" s="62">
-        <v>27</v>
+      <c r="C80" s="55">
+        <v>9</v>
+      </c>
+      <c r="D80" s="55">
+        <v>12</v>
+      </c>
+      <c r="E80" s="55">
+        <v>6</v>
+      </c>
+      <c r="F80" s="55">
+        <v>13.5</v>
       </c>
       <c r="G80" s="22">
-        <v>21</v>
-      </c>
-      <c r="H80" s="62">
-        <v>24</v>
-      </c>
-      <c r="I80" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H80" s="55">
+        <v>12</v>
+      </c>
+      <c r="I80" s="55">
+        <v>7.5</v>
       </c>
       <c r="J80" s="24">
-        <v>24</v>
-      </c>
-      <c r="K80" s="62">
-        <v>21</v>
-      </c>
-      <c r="L80" s="62">
-        <v>24</v>
-      </c>
-      <c r="M80" s="62">
-        <v>18</v>
-      </c>
-      <c r="N80" s="62">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="K80" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L80" s="55">
+        <v>12</v>
+      </c>
+      <c r="M80" s="55">
+        <v>9</v>
+      </c>
+      <c r="N80" s="55">
+        <v>12</v>
       </c>
       <c r="O80" s="25">
         <f>+AVERAGEIFS(K80:N80,K80:N80,"&gt;=0")</f>
-        <v>21.75</v>
+        <v>10.875</v>
       </c>
       <c r="P80" s="26">
         <f>+MEDIAN(K80:N80)</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q80" s="27">
         <f>+(MIN(K80:N80)+MAX(K80:N80)+4*O80)/6</f>
-        <v>21.5</v>
+        <v>10.75</v>
       </c>
       <c r="R80" s="28">
         <f>Q80*1.25*1.33</f>
-        <v>35.743749999999999</v>
+        <v>17.871874999999999</v>
       </c>
       <c r="S80" s="24" t="s">
         <v>281</v>
@@ -6134,57 +6135,57 @@
       <c r="B81" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="62">
-        <v>12</v>
-      </c>
-      <c r="D81" s="62">
-        <v>24</v>
-      </c>
-      <c r="E81" s="62">
-        <v>9</v>
-      </c>
-      <c r="F81" s="62">
-        <v>21</v>
+      <c r="C81" s="55">
+        <v>6</v>
+      </c>
+      <c r="D81" s="55">
+        <v>12</v>
+      </c>
+      <c r="E81" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="F81" s="55">
+        <v>10.5</v>
       </c>
       <c r="G81" s="22">
-        <v>18</v>
-      </c>
-      <c r="H81" s="62">
-        <v>21</v>
-      </c>
-      <c r="I81" s="62">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="H81" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="I81" s="55">
+        <v>7.5</v>
       </c>
       <c r="J81" s="24">
-        <v>21</v>
-      </c>
-      <c r="K81" s="62">
-        <v>18</v>
-      </c>
-      <c r="L81" s="62">
-        <v>21</v>
-      </c>
-      <c r="M81" s="62">
-        <v>15</v>
-      </c>
-      <c r="N81" s="62">
-        <v>21</v>
+        <v>10.5</v>
+      </c>
+      <c r="K81" s="55">
+        <v>9</v>
+      </c>
+      <c r="L81" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="M81" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="N81" s="55">
+        <v>10.5</v>
       </c>
       <c r="O81" s="25">
         <f>+AVERAGEIFS(K81:N81,K81:N81,"&gt;=0")</f>
-        <v>18.75</v>
+        <v>9.375</v>
       </c>
       <c r="P81" s="26">
         <f>+MEDIAN(K81:N81)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q81" s="27">
         <f>+(MIN(K81:N81)+MAX(K81:N81)+4*O81)/6</f>
-        <v>18.5</v>
+        <v>9.25</v>
       </c>
       <c r="R81" s="28">
         <f>Q81*1.25*1.33</f>
-        <v>30.756250000000001</v>
+        <v>15.378125000000001</v>
       </c>
       <c r="S81" s="24" t="s">
         <v>281</v>
@@ -6197,57 +6198,57 @@
       <c r="B82" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="62">
-        <v>9</v>
-      </c>
-      <c r="D82" s="62">
-        <v>24</v>
-      </c>
-      <c r="E82" s="62">
-        <v>6</v>
-      </c>
-      <c r="F82" s="62">
-        <v>15</v>
+      <c r="C82" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="D82" s="55">
+        <v>12</v>
+      </c>
+      <c r="E82" s="55">
+        <v>3</v>
+      </c>
+      <c r="F82" s="55">
+        <v>7.5</v>
       </c>
       <c r="G82" s="22">
-        <v>15</v>
-      </c>
-      <c r="H82" s="62">
-        <v>18</v>
-      </c>
-      <c r="I82" s="62">
-        <v>12</v>
+        <v>7.5</v>
+      </c>
+      <c r="H82" s="55">
+        <v>9</v>
+      </c>
+      <c r="I82" s="55">
+        <v>6</v>
       </c>
       <c r="J82" s="24">
-        <v>18</v>
-      </c>
-      <c r="K82" s="62">
-        <v>15</v>
-      </c>
-      <c r="L82" s="62">
-        <v>18</v>
-      </c>
-      <c r="M82" s="62">
-        <v>12</v>
-      </c>
-      <c r="N82" s="62">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="K82" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="L82" s="55">
+        <v>9</v>
+      </c>
+      <c r="M82" s="55">
+        <v>6</v>
+      </c>
+      <c r="N82" s="55">
+        <v>9</v>
       </c>
       <c r="O82" s="25">
         <f>+AVERAGEIFS(K82:N82,K82:N82,"&gt;=0")</f>
-        <v>15.75</v>
+        <v>7.875</v>
       </c>
       <c r="P82" s="26">
         <f>+MEDIAN(K82:N82)</f>
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="Q82" s="27">
         <f>+(MIN(K82:N82)+MAX(K82:N82)+4*O82)/6</f>
-        <v>15.5</v>
+        <v>7.75</v>
       </c>
       <c r="R82" s="28">
         <f>Q82*1.25*1.33</f>
-        <v>25.768750000000001</v>
+        <v>12.884375</v>
       </c>
       <c r="S82" s="24" t="s">
         <v>281</v>
@@ -6285,57 +6286,57 @@
       <c r="B84" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="62">
-        <v>18</v>
-      </c>
-      <c r="D84" s="62">
-        <v>24</v>
-      </c>
-      <c r="E84" s="62">
-        <v>12</v>
-      </c>
-      <c r="F84" s="62">
-        <v>27</v>
+      <c r="C84" s="55">
+        <v>9</v>
+      </c>
+      <c r="D84" s="55">
+        <v>12</v>
+      </c>
+      <c r="E84" s="55">
+        <v>6</v>
+      </c>
+      <c r="F84" s="55">
+        <v>13.5</v>
       </c>
       <c r="G84" s="22">
-        <v>21</v>
-      </c>
-      <c r="H84" s="62">
-        <v>24</v>
-      </c>
-      <c r="I84" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H84" s="55">
+        <v>12</v>
+      </c>
+      <c r="I84" s="55">
+        <v>7.5</v>
       </c>
       <c r="J84" s="24">
-        <v>24</v>
-      </c>
-      <c r="K84" s="62">
-        <v>21</v>
-      </c>
-      <c r="L84" s="62">
-        <v>24</v>
-      </c>
-      <c r="M84" s="62">
-        <v>18</v>
-      </c>
-      <c r="N84" s="62">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="K84" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L84" s="55">
+        <v>12</v>
+      </c>
+      <c r="M84" s="55">
+        <v>9</v>
+      </c>
+      <c r="N84" s="55">
+        <v>12</v>
       </c>
       <c r="O84" s="25">
         <f>+AVERAGEIFS(K84:N84,K84:N84,"&gt;=0")</f>
-        <v>21.75</v>
+        <v>10.875</v>
       </c>
       <c r="P84" s="26">
         <f>+MEDIAN(K84:N84)</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q84" s="27">
         <f>+(MIN(K84:N84)+MAX(K84:N84)+4*O84)/6</f>
-        <v>21.5</v>
+        <v>10.75</v>
       </c>
       <c r="R84" s="28">
         <f>Q84*1.25*1.33</f>
-        <v>35.743749999999999</v>
+        <v>17.871874999999999</v>
       </c>
       <c r="S84" s="24" t="s">
         <v>281</v>
@@ -6348,57 +6349,57 @@
       <c r="B85" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C85" s="62">
-        <v>12</v>
-      </c>
-      <c r="D85" s="62">
-        <v>30</v>
-      </c>
-      <c r="E85" s="62">
-        <v>9</v>
-      </c>
-      <c r="F85" s="62">
-        <v>24</v>
+      <c r="C85" s="55">
+        <v>6</v>
+      </c>
+      <c r="D85" s="55">
+        <v>15</v>
+      </c>
+      <c r="E85" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="F85" s="55">
+        <v>12</v>
       </c>
       <c r="G85" s="22">
-        <v>18</v>
-      </c>
-      <c r="H85" s="62">
-        <v>24</v>
-      </c>
-      <c r="I85" s="62">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="H85" s="55">
+        <v>12</v>
+      </c>
+      <c r="I85" s="55">
+        <v>7.5</v>
       </c>
       <c r="J85" s="24">
-        <v>21</v>
-      </c>
-      <c r="K85" s="62">
-        <v>18</v>
-      </c>
-      <c r="L85" s="62">
-        <v>21</v>
-      </c>
-      <c r="M85" s="62">
-        <v>15</v>
-      </c>
-      <c r="N85" s="62">
-        <v>21</v>
+        <v>10.5</v>
+      </c>
+      <c r="K85" s="55">
+        <v>9</v>
+      </c>
+      <c r="L85" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="M85" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="N85" s="55">
+        <v>10.5</v>
       </c>
       <c r="O85" s="25">
         <f>+AVERAGEIFS(K85:N85,K85:N85,"&gt;=0")</f>
-        <v>18.75</v>
+        <v>9.375</v>
       </c>
       <c r="P85" s="26">
         <f>+MEDIAN(K85:N85)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q85" s="27">
         <f>+(MIN(K85:N85)+MAX(K85:N85)+4*O85)/6</f>
-        <v>18.5</v>
+        <v>9.25</v>
       </c>
       <c r="R85" s="28">
         <f>Q85*1.25*1.33</f>
-        <v>30.756250000000001</v>
+        <v>15.378125000000001</v>
       </c>
       <c r="S85" s="24" t="s">
         <v>281</v>
@@ -6411,57 +6412,57 @@
       <c r="B86" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="62">
-        <v>12</v>
-      </c>
-      <c r="D86" s="62">
-        <v>39</v>
-      </c>
-      <c r="E86" s="62">
-        <v>6</v>
-      </c>
-      <c r="F86" s="62">
-        <v>21</v>
+      <c r="C86" s="55">
+        <v>6</v>
+      </c>
+      <c r="D86" s="55">
+        <v>19.5</v>
+      </c>
+      <c r="E86" s="55">
+        <v>3</v>
+      </c>
+      <c r="F86" s="55">
+        <v>10.5</v>
       </c>
       <c r="G86" s="22">
-        <v>21</v>
-      </c>
-      <c r="H86" s="62">
-        <v>21</v>
-      </c>
-      <c r="I86" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H86" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="I86" s="55">
+        <v>7.5</v>
       </c>
       <c r="J86" s="24">
-        <v>18</v>
-      </c>
-      <c r="K86" s="62">
-        <v>21</v>
-      </c>
-      <c r="L86" s="62">
-        <v>21</v>
-      </c>
-      <c r="M86" s="62">
-        <v>15</v>
-      </c>
-      <c r="N86" s="62">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="K86" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L86" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="M86" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="N86" s="55">
+        <v>9</v>
       </c>
       <c r="O86" s="25">
         <f>+AVERAGEIFS(K86:N86,K86:N86,"&gt;=0")</f>
-        <v>18.75</v>
+        <v>9.375</v>
       </c>
       <c r="P86" s="26">
         <f>+MEDIAN(K86:N86)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q86" s="27">
         <f>+(MIN(K86:N86)+MAX(K86:N86)+4*O86)/6</f>
-        <v>18.5</v>
+        <v>9.25</v>
       </c>
       <c r="R86" s="28">
         <f>Q86*1.25*1.33</f>
-        <v>30.756250000000001</v>
+        <v>15.378125000000001</v>
       </c>
       <c r="S86" s="24" t="s">
         <v>281</v>
@@ -6499,57 +6500,57 @@
       <c r="B88" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="62">
-        <v>18</v>
-      </c>
-      <c r="D88" s="62">
-        <v>24</v>
-      </c>
-      <c r="E88" s="62">
-        <v>12</v>
-      </c>
-      <c r="F88" s="62">
-        <v>27</v>
+      <c r="C88" s="55">
+        <v>9</v>
+      </c>
+      <c r="D88" s="55">
+        <v>12</v>
+      </c>
+      <c r="E88" s="55">
+        <v>6</v>
+      </c>
+      <c r="F88" s="55">
+        <v>13.5</v>
       </c>
       <c r="G88" s="22">
-        <v>21</v>
-      </c>
-      <c r="H88" s="62">
-        <v>24</v>
-      </c>
-      <c r="I88" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H88" s="55">
+        <v>12</v>
+      </c>
+      <c r="I88" s="55">
+        <v>7.5</v>
       </c>
       <c r="J88" s="24">
-        <v>24</v>
-      </c>
-      <c r="K88" s="62">
-        <v>21</v>
-      </c>
-      <c r="L88" s="62">
-        <v>24</v>
-      </c>
-      <c r="M88" s="62">
-        <v>15</v>
-      </c>
-      <c r="N88" s="62">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="K88" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L88" s="55">
+        <v>12</v>
+      </c>
+      <c r="M88" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="N88" s="55">
+        <v>12</v>
       </c>
       <c r="O88" s="25">
         <f>+AVERAGEIFS(K88:N88,K88:N88,"&gt;=0")</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="P88" s="26">
         <f>+MEDIAN(K88:N88)</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q88" s="27">
         <f>+(MIN(K88:N88)+MAX(K88:N88)+4*O88)/6</f>
-        <v>20.5</v>
+        <v>10.25</v>
       </c>
       <c r="R88" s="28">
         <f>Q88*1.25*1.33</f>
-        <v>34.081250000000004</v>
+        <v>17.040625000000002</v>
       </c>
       <c r="S88" s="24" t="s">
         <v>281</v>
@@ -6562,57 +6563,57 @@
       <c r="B89" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="62">
+      <c r="C89" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="D89" s="55">
+        <v>18</v>
+      </c>
+      <c r="E89" s="55">
+        <v>6</v>
+      </c>
+      <c r="F89" s="55">
+        <v>22.5</v>
+      </c>
+      <c r="G89" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="H89" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="I89" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="J89" s="24">
         <v>15</v>
       </c>
-      <c r="D89" s="62">
-        <v>36</v>
-      </c>
-      <c r="E89" s="62">
-        <v>12</v>
-      </c>
-      <c r="F89" s="62">
-        <v>45</v>
-      </c>
-      <c r="G89" s="22">
-        <v>21</v>
-      </c>
-      <c r="H89" s="62">
-        <v>21</v>
-      </c>
-      <c r="I89" s="62">
-        <v>21</v>
-      </c>
-      <c r="J89" s="24">
-        <v>30</v>
-      </c>
-      <c r="K89" s="62">
-        <v>21</v>
-      </c>
-      <c r="L89" s="62">
-        <v>21</v>
-      </c>
-      <c r="M89" s="62">
-        <v>21</v>
-      </c>
-      <c r="N89" s="62">
-        <v>27</v>
+      <c r="K89" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L89" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="M89" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="N89" s="55">
+        <v>13.5</v>
       </c>
       <c r="O89" s="25">
         <f>+AVERAGEIFS(K89:N89,K89:N89,"&gt;=0")</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="P89" s="26">
         <f>+MEDIAN(K89:N89)</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Q89" s="27">
         <f>+(MIN(K89:N89)+MAX(K89:N89)+4*O89)/6</f>
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="R89" s="28">
         <f>Q89*1.25*1.33</f>
-        <v>38.237500000000004</v>
+        <v>19.118750000000002</v>
       </c>
       <c r="S89" s="24" t="s">
         <v>281</v>
@@ -6625,57 +6626,57 @@
       <c r="B90" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="62">
-        <v>15</v>
-      </c>
-      <c r="D90" s="62">
-        <v>15</v>
-      </c>
-      <c r="E90" s="62">
-        <v>9</v>
-      </c>
-      <c r="F90" s="62">
-        <v>9</v>
+      <c r="C90" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="D90" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="E90" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="F90" s="55">
+        <v>4.5</v>
       </c>
       <c r="G90" s="22">
-        <v>15</v>
-      </c>
-      <c r="H90" s="62">
-        <v>15</v>
-      </c>
-      <c r="I90" s="62">
-        <v>12</v>
+        <v>7.5</v>
+      </c>
+      <c r="H90" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="I90" s="55">
+        <v>6</v>
       </c>
       <c r="J90" s="24">
-        <v>9</v>
-      </c>
-      <c r="K90" s="62">
-        <v>15</v>
-      </c>
-      <c r="L90" s="62">
-        <v>15</v>
-      </c>
-      <c r="M90" s="62">
-        <v>12</v>
-      </c>
-      <c r="N90" s="62">
-        <v>9</v>
+        <v>4.5</v>
+      </c>
+      <c r="K90" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="L90" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="M90" s="55">
+        <v>6</v>
+      </c>
+      <c r="N90" s="55">
+        <v>4.5</v>
       </c>
       <c r="O90" s="25">
         <f>+AVERAGEIFS(K90:N90,K90:N90,"&gt;=0")</f>
-        <v>12.75</v>
+        <v>6.375</v>
       </c>
       <c r="P90" s="26">
         <f>+MEDIAN(K90:N90)</f>
-        <v>13.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q90" s="27">
         <f>+(MIN(K90:N90)+MAX(K90:N90)+4*O90)/6</f>
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="R90" s="28">
         <f>Q90*1.25*1.33</f>
-        <v>20.78125</v>
+        <v>10.390625</v>
       </c>
       <c r="S90" s="24" t="s">
         <v>281</v>
@@ -6688,57 +6689,57 @@
       <c r="B91" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="62">
-        <v>9</v>
-      </c>
-      <c r="D91" s="62">
-        <v>12</v>
-      </c>
-      <c r="E91" s="62">
-        <v>6</v>
-      </c>
-      <c r="F91" s="62">
-        <v>15</v>
+      <c r="C91" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="D91" s="55">
+        <v>6</v>
+      </c>
+      <c r="E91" s="55">
+        <v>3</v>
+      </c>
+      <c r="F91" s="55">
+        <v>7.5</v>
       </c>
       <c r="G91" s="22">
-        <v>12</v>
-      </c>
-      <c r="H91" s="62">
-        <v>12</v>
-      </c>
-      <c r="I91" s="62">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="H91" s="55">
+        <v>6</v>
+      </c>
+      <c r="I91" s="55">
+        <v>4.5</v>
       </c>
       <c r="J91" s="24">
-        <v>15</v>
-      </c>
-      <c r="K91" s="62">
-        <v>12</v>
-      </c>
-      <c r="L91" s="62">
-        <v>12</v>
-      </c>
-      <c r="M91" s="62">
-        <v>9</v>
-      </c>
-      <c r="N91" s="62">
-        <v>15</v>
+        <v>7.5</v>
+      </c>
+      <c r="K91" s="55">
+        <v>6</v>
+      </c>
+      <c r="L91" s="55">
+        <v>6</v>
+      </c>
+      <c r="M91" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="N91" s="55">
+        <v>7.5</v>
       </c>
       <c r="O91" s="25">
         <f>+AVERAGEIFS(K91:N91,K91:N91,"&gt;=0")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P91" s="26">
         <f>+MEDIAN(K91:N91)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q91" s="27">
         <f>+(MIN(K91:N91)+MAX(K91:N91)+4*O91)/6</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R91" s="28">
         <f>Q91*1.25*1.33</f>
-        <v>19.950000000000003</v>
+        <v>9.9750000000000014</v>
       </c>
       <c r="S91" s="24" t="s">
         <v>281</v>
@@ -6776,57 +6777,57 @@
       <c r="B93" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="62">
-        <v>18</v>
-      </c>
-      <c r="D93" s="62">
-        <v>24</v>
-      </c>
-      <c r="E93" s="62">
-        <v>12</v>
-      </c>
-      <c r="F93" s="62">
-        <v>27</v>
+      <c r="C93" s="55">
+        <v>9</v>
+      </c>
+      <c r="D93" s="55">
+        <v>12</v>
+      </c>
+      <c r="E93" s="55">
+        <v>6</v>
+      </c>
+      <c r="F93" s="55">
+        <v>13.5</v>
       </c>
       <c r="G93" s="22">
-        <v>21</v>
-      </c>
-      <c r="H93" s="62">
-        <v>24</v>
-      </c>
-      <c r="I93" s="62">
-        <v>15</v>
+        <v>10.5</v>
+      </c>
+      <c r="H93" s="55">
+        <v>12</v>
+      </c>
+      <c r="I93" s="55">
+        <v>7.5</v>
       </c>
       <c r="J93" s="24">
-        <v>24</v>
-      </c>
-      <c r="K93" s="62">
-        <v>21</v>
-      </c>
-      <c r="L93" s="62">
-        <v>24</v>
-      </c>
-      <c r="M93" s="62">
-        <v>18</v>
-      </c>
-      <c r="N93" s="62">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="K93" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="L93" s="55">
+        <v>12</v>
+      </c>
+      <c r="M93" s="55">
+        <v>9</v>
+      </c>
+      <c r="N93" s="55">
+        <v>10.5</v>
       </c>
       <c r="O93" s="25">
         <f>+AVERAGEIFS(K93:N93,K93:N93,"&gt;=0")</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="P93" s="26">
         <f>+MEDIAN(K93:N93)</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Q93" s="27">
         <f>+(MIN(K93:N93)+MAX(K93:N93)+4*O93)/6</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="R93" s="28">
         <f>Q93*1.25*1.33</f>
-        <v>34.912500000000001</v>
+        <v>17.456250000000001</v>
       </c>
       <c r="S93" s="24" t="s">
         <v>281</v>
@@ -6839,57 +6840,57 @@
       <c r="B94" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="62">
-        <v>12</v>
-      </c>
-      <c r="D94" s="62">
-        <v>24</v>
-      </c>
-      <c r="E94" s="62">
-        <v>9</v>
-      </c>
-      <c r="F94" s="62">
-        <v>27</v>
+      <c r="C94" s="55">
+        <v>6</v>
+      </c>
+      <c r="D94" s="55">
+        <v>12</v>
+      </c>
+      <c r="E94" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="F94" s="55">
+        <v>13.5</v>
       </c>
       <c r="G94" s="22">
-        <v>18</v>
-      </c>
-      <c r="H94" s="62">
-        <v>18</v>
-      </c>
-      <c r="I94" s="62">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="H94" s="55">
+        <v>9</v>
+      </c>
+      <c r="I94" s="55">
+        <v>7.5</v>
       </c>
       <c r="J94" s="24">
-        <v>15</v>
-      </c>
-      <c r="K94" s="62">
-        <v>18</v>
-      </c>
-      <c r="L94" s="62">
-        <v>18</v>
-      </c>
-      <c r="M94" s="62">
-        <v>15</v>
-      </c>
-      <c r="N94" s="62">
-        <v>15</v>
+        <v>7.5</v>
+      </c>
+      <c r="K94" s="55">
+        <v>9</v>
+      </c>
+      <c r="L94" s="55">
+        <v>9</v>
+      </c>
+      <c r="M94" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="N94" s="55">
+        <v>7.5</v>
       </c>
       <c r="O94" s="25">
         <f>+AVERAGEIFS(K94:N94,K94:N94,"&gt;=0")</f>
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="P94" s="26">
         <f>+MEDIAN(K94:N94)</f>
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="Q94" s="27">
         <f>+(MIN(K94:N94)+MAX(K94:N94)+4*O94)/6</f>
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="R94" s="28">
         <f>Q94*1.25*1.33</f>
-        <v>27.431250000000002</v>
+        <v>13.715625000000001</v>
       </c>
       <c r="S94" s="24" t="s">
         <v>281</v>
@@ -6902,57 +6903,57 @@
       <c r="B95" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="63">
-        <v>9</v>
-      </c>
-      <c r="D95" s="63">
-        <v>15</v>
-      </c>
-      <c r="E95" s="63">
-        <v>6</v>
-      </c>
-      <c r="F95" s="63">
-        <v>12</v>
+      <c r="C95" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="D95" s="56">
+        <v>7.5</v>
+      </c>
+      <c r="E95" s="56">
+        <v>3</v>
+      </c>
+      <c r="F95" s="56">
+        <v>6</v>
       </c>
       <c r="G95" s="41">
-        <v>12</v>
-      </c>
-      <c r="H95" s="63">
-        <v>15</v>
-      </c>
-      <c r="I95" s="63">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="H95" s="56">
+        <v>7.5</v>
+      </c>
+      <c r="I95" s="56">
+        <v>3</v>
       </c>
       <c r="J95" s="47">
-        <v>12</v>
-      </c>
-      <c r="K95" s="63">
-        <v>12</v>
-      </c>
-      <c r="L95" s="63">
-        <v>15</v>
-      </c>
-      <c r="M95" s="63">
-        <v>9</v>
-      </c>
-      <c r="N95" s="63">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="K95" s="56">
+        <v>6</v>
+      </c>
+      <c r="L95" s="56">
+        <v>7.5</v>
+      </c>
+      <c r="M95" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="N95" s="56">
+        <v>6</v>
       </c>
       <c r="O95" s="43">
         <f>+AVERAGEIFS(K95:N95,K95:N95,"&gt;=0")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P95" s="44">
         <f>+MEDIAN(K95:N95)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q95" s="45">
         <f>+(MIN(K95:N95)+MAX(K95:N95)+4*O95)/6</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R95" s="46">
         <f>Q95*1.25*1.33</f>
-        <v>19.950000000000003</v>
+        <v>9.9750000000000014</v>
       </c>
       <c r="S95" s="47" t="s">
         <v>281</v>
@@ -6990,40 +6991,40 @@
       <c r="B97" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="62">
-        <v>9</v>
-      </c>
-      <c r="D97" s="62">
+      <c r="C97" s="55">
+        <v>9</v>
+      </c>
+      <c r="D97" s="55">
         <v>15</v>
       </c>
-      <c r="E97" s="62">
-        <v>6</v>
-      </c>
-      <c r="F97" s="62">
+      <c r="E97" s="55">
+        <v>6</v>
+      </c>
+      <c r="F97" s="55">
         <v>18</v>
       </c>
       <c r="G97" s="22">
         <v>9</v>
       </c>
-      <c r="H97" s="62">
-        <v>9</v>
-      </c>
-      <c r="I97" s="62">
+      <c r="H97" s="55">
+        <v>9</v>
+      </c>
+      <c r="I97" s="55">
         <v>12</v>
       </c>
       <c r="J97" s="24">
         <v>18</v>
       </c>
-      <c r="K97" s="62">
-        <v>9</v>
-      </c>
-      <c r="L97" s="62">
-        <v>9</v>
-      </c>
-      <c r="M97" s="62">
-        <v>12</v>
-      </c>
-      <c r="N97" s="62">
+      <c r="K97" s="55">
+        <v>9</v>
+      </c>
+      <c r="L97" s="55">
+        <v>9</v>
+      </c>
+      <c r="M97" s="55">
+        <v>12</v>
+      </c>
+      <c r="N97" s="55">
         <v>15</v>
       </c>
       <c r="O97" s="25">
@@ -7053,40 +7054,40 @@
       <c r="B98" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="62">
-        <v>6</v>
-      </c>
-      <c r="D98" s="62">
-        <v>9</v>
-      </c>
-      <c r="E98" s="62">
-        <v>9</v>
-      </c>
-      <c r="F98" s="62">
+      <c r="C98" s="55">
+        <v>6</v>
+      </c>
+      <c r="D98" s="55">
+        <v>9</v>
+      </c>
+      <c r="E98" s="55">
+        <v>9</v>
+      </c>
+      <c r="F98" s="55">
         <v>12</v>
       </c>
       <c r="G98" s="22">
         <v>9</v>
       </c>
-      <c r="H98" s="62">
-        <v>9</v>
-      </c>
-      <c r="I98" s="62">
+      <c r="H98" s="55">
+        <v>9</v>
+      </c>
+      <c r="I98" s="55">
         <v>9</v>
       </c>
       <c r="J98" s="24">
         <v>12</v>
       </c>
-      <c r="K98" s="62">
-        <v>9</v>
-      </c>
-      <c r="L98" s="62">
-        <v>9</v>
-      </c>
-      <c r="M98" s="62">
-        <v>9</v>
-      </c>
-      <c r="N98" s="62">
+      <c r="K98" s="55">
+        <v>9</v>
+      </c>
+      <c r="L98" s="55">
+        <v>9</v>
+      </c>
+      <c r="M98" s="55">
+        <v>9</v>
+      </c>
+      <c r="N98" s="55">
         <v>12</v>
       </c>
       <c r="O98" s="25">
@@ -7116,40 +7117,40 @@
       <c r="B99" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="62">
-        <v>9</v>
-      </c>
-      <c r="D99" s="62">
-        <v>3</v>
-      </c>
-      <c r="E99" s="62">
-        <v>6</v>
-      </c>
-      <c r="F99" s="62">
+      <c r="C99" s="55">
+        <v>9</v>
+      </c>
+      <c r="D99" s="55">
+        <v>3</v>
+      </c>
+      <c r="E99" s="55">
+        <v>6</v>
+      </c>
+      <c r="F99" s="55">
         <v>3</v>
       </c>
       <c r="G99" s="22">
         <v>6</v>
       </c>
-      <c r="H99" s="62">
-        <v>3</v>
-      </c>
-      <c r="I99" s="62">
+      <c r="H99" s="55">
+        <v>3</v>
+      </c>
+      <c r="I99" s="55">
         <v>6</v>
       </c>
       <c r="J99" s="24">
         <v>3</v>
       </c>
-      <c r="K99" s="62">
-        <v>6</v>
-      </c>
-      <c r="L99" s="62">
-        <v>3</v>
-      </c>
-      <c r="M99" s="62">
-        <v>6</v>
-      </c>
-      <c r="N99" s="62">
+      <c r="K99" s="55">
+        <v>6</v>
+      </c>
+      <c r="L99" s="55">
+        <v>3</v>
+      </c>
+      <c r="M99" s="55">
+        <v>6</v>
+      </c>
+      <c r="N99" s="55">
         <v>3</v>
       </c>
       <c r="O99" s="25">
@@ -7179,40 +7180,40 @@
       <c r="B100" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="62">
-        <v>12</v>
-      </c>
-      <c r="D100" s="62">
-        <v>3</v>
-      </c>
-      <c r="E100" s="62">
+      <c r="C100" s="55">
+        <v>12</v>
+      </c>
+      <c r="D100" s="55">
+        <v>3</v>
+      </c>
+      <c r="E100" s="55">
         <v>15</v>
       </c>
-      <c r="F100" s="62">
+      <c r="F100" s="55">
         <v>6</v>
       </c>
       <c r="G100" s="22">
         <v>12</v>
       </c>
-      <c r="H100" s="62">
-        <v>6</v>
-      </c>
-      <c r="I100" s="62">
+      <c r="H100" s="55">
+        <v>6</v>
+      </c>
+      <c r="I100" s="55">
         <v>9</v>
       </c>
       <c r="J100" s="24">
         <v>9</v>
       </c>
-      <c r="K100" s="62">
-        <v>9</v>
-      </c>
-      <c r="L100" s="62">
-        <v>6</v>
-      </c>
-      <c r="M100" s="62">
-        <v>9</v>
-      </c>
-      <c r="N100" s="62">
+      <c r="K100" s="55">
+        <v>9</v>
+      </c>
+      <c r="L100" s="55">
+        <v>6</v>
+      </c>
+      <c r="M100" s="55">
+        <v>9</v>
+      </c>
+      <c r="N100" s="55">
         <v>9</v>
       </c>
       <c r="O100" s="25">
@@ -7267,40 +7268,40 @@
       <c r="B102" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C102" s="62">
-        <v>9</v>
-      </c>
-      <c r="D102" s="62">
-        <v>12</v>
-      </c>
-      <c r="E102" s="62">
-        <v>6</v>
-      </c>
-      <c r="F102" s="62">
+      <c r="C102" s="55">
+        <v>9</v>
+      </c>
+      <c r="D102" s="55">
+        <v>12</v>
+      </c>
+      <c r="E102" s="55">
+        <v>6</v>
+      </c>
+      <c r="F102" s="55">
         <v>15</v>
       </c>
       <c r="G102" s="22">
         <v>9</v>
       </c>
-      <c r="H102" s="62">
-        <v>9</v>
-      </c>
-      <c r="I102" s="62">
+      <c r="H102" s="55">
+        <v>9</v>
+      </c>
+      <c r="I102" s="55">
         <v>9</v>
       </c>
       <c r="J102" s="24">
         <v>12</v>
       </c>
-      <c r="K102" s="62">
-        <v>9</v>
-      </c>
-      <c r="L102" s="62">
-        <v>9</v>
-      </c>
-      <c r="M102" s="62">
-        <v>9</v>
-      </c>
-      <c r="N102" s="62">
+      <c r="K102" s="55">
+        <v>9</v>
+      </c>
+      <c r="L102" s="55">
+        <v>9</v>
+      </c>
+      <c r="M102" s="55">
+        <v>9</v>
+      </c>
+      <c r="N102" s="55">
         <v>12</v>
       </c>
       <c r="O102" s="25">
@@ -7330,40 +7331,40 @@
       <c r="B103" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C103" s="62">
-        <v>3</v>
-      </c>
-      <c r="D103" s="62">
-        <v>3</v>
-      </c>
-      <c r="E103" s="62">
-        <v>3</v>
-      </c>
-      <c r="F103" s="62">
+      <c r="C103" s="55">
+        <v>3</v>
+      </c>
+      <c r="D103" s="55">
+        <v>3</v>
+      </c>
+      <c r="E103" s="55">
+        <v>3</v>
+      </c>
+      <c r="F103" s="55">
         <v>3</v>
       </c>
       <c r="G103" s="22">
         <v>3</v>
       </c>
-      <c r="H103" s="62">
-        <v>3</v>
-      </c>
-      <c r="I103" s="62">
+      <c r="H103" s="55">
+        <v>3</v>
+      </c>
+      <c r="I103" s="55">
         <v>3</v>
       </c>
       <c r="J103" s="24">
         <v>3</v>
       </c>
-      <c r="K103" s="62">
-        <v>3</v>
-      </c>
-      <c r="L103" s="62">
-        <v>3</v>
-      </c>
-      <c r="M103" s="62">
-        <v>3</v>
-      </c>
-      <c r="N103" s="62">
+      <c r="K103" s="55">
+        <v>3</v>
+      </c>
+      <c r="L103" s="55">
+        <v>3</v>
+      </c>
+      <c r="M103" s="55">
+        <v>3</v>
+      </c>
+      <c r="N103" s="55">
         <v>3</v>
       </c>
       <c r="O103" s="25">
@@ -7393,40 +7394,40 @@
       <c r="B104" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C104" s="62">
-        <v>3</v>
-      </c>
-      <c r="D104" s="62">
-        <v>3</v>
-      </c>
-      <c r="E104" s="62">
-        <v>6</v>
-      </c>
-      <c r="F104" s="62">
+      <c r="C104" s="55">
+        <v>3</v>
+      </c>
+      <c r="D104" s="55">
+        <v>3</v>
+      </c>
+      <c r="E104" s="55">
+        <v>6</v>
+      </c>
+      <c r="F104" s="55">
         <v>6</v>
       </c>
       <c r="G104" s="22">
         <v>3</v>
       </c>
-      <c r="H104" s="62">
-        <v>3</v>
-      </c>
-      <c r="I104" s="62">
+      <c r="H104" s="55">
+        <v>3</v>
+      </c>
+      <c r="I104" s="55">
         <v>6</v>
       </c>
       <c r="J104" s="24">
         <v>6</v>
       </c>
-      <c r="K104" s="62">
-        <v>3</v>
-      </c>
-      <c r="L104" s="62">
-        <v>3</v>
-      </c>
-      <c r="M104" s="62">
-        <v>6</v>
-      </c>
-      <c r="N104" s="62">
+      <c r="K104" s="55">
+        <v>3</v>
+      </c>
+      <c r="L104" s="55">
+        <v>3</v>
+      </c>
+      <c r="M104" s="55">
+        <v>6</v>
+      </c>
+      <c r="N104" s="55">
         <v>6</v>
       </c>
       <c r="O104" s="25">
@@ -7456,40 +7457,40 @@
       <c r="B105" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C105" s="62">
-        <v>9</v>
-      </c>
-      <c r="D105" s="62">
+      <c r="C105" s="55">
+        <v>9</v>
+      </c>
+      <c r="D105" s="55">
         <v>15</v>
       </c>
-      <c r="E105" s="62">
+      <c r="E105" s="55">
         <v>18</v>
       </c>
-      <c r="F105" s="62">
+      <c r="F105" s="55">
         <v>21</v>
       </c>
       <c r="G105" s="22">
         <v>18</v>
       </c>
-      <c r="H105" s="62">
+      <c r="H105" s="55">
         <v>15</v>
       </c>
-      <c r="I105" s="62">
+      <c r="I105" s="55">
         <v>18</v>
       </c>
       <c r="J105" s="24">
         <v>21</v>
       </c>
-      <c r="K105" s="62">
+      <c r="K105" s="55">
         <v>18</v>
       </c>
-      <c r="L105" s="62">
+      <c r="L105" s="55">
         <v>15</v>
       </c>
-      <c r="M105" s="62">
+      <c r="M105" s="55">
         <v>18</v>
       </c>
-      <c r="N105" s="62">
+      <c r="N105" s="55">
         <v>21</v>
       </c>
       <c r="O105" s="25">
@@ -7544,40 +7545,40 @@
       <c r="B107" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="62">
-        <v>9</v>
-      </c>
-      <c r="D107" s="62">
+      <c r="C107" s="55">
+        <v>9</v>
+      </c>
+      <c r="D107" s="55">
         <v>18</v>
       </c>
-      <c r="E107" s="62">
-        <v>6</v>
-      </c>
-      <c r="F107" s="62">
+      <c r="E107" s="55">
+        <v>6</v>
+      </c>
+      <c r="F107" s="55">
         <v>24</v>
       </c>
       <c r="G107" s="22">
         <v>12</v>
       </c>
-      <c r="H107" s="62">
+      <c r="H107" s="55">
         <v>18</v>
       </c>
-      <c r="I107" s="62">
+      <c r="I107" s="55">
         <v>12</v>
       </c>
       <c r="J107" s="24">
         <v>12</v>
       </c>
-      <c r="K107" s="62">
-        <v>12</v>
-      </c>
-      <c r="L107" s="62">
+      <c r="K107" s="55">
+        <v>12</v>
+      </c>
+      <c r="L107" s="55">
         <v>18</v>
       </c>
-      <c r="M107" s="62">
-        <v>12</v>
-      </c>
-      <c r="N107" s="62">
+      <c r="M107" s="55">
+        <v>12</v>
+      </c>
+      <c r="N107" s="55">
         <v>12</v>
       </c>
       <c r="O107" s="25">
@@ -7607,40 +7608,40 @@
       <c r="B108" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="63">
-        <v>9</v>
-      </c>
-      <c r="D108" s="63">
-        <v>3</v>
-      </c>
-      <c r="E108" s="63">
-        <v>6</v>
-      </c>
-      <c r="F108" s="63">
+      <c r="C108" s="56">
+        <v>9</v>
+      </c>
+      <c r="D108" s="56">
+        <v>3</v>
+      </c>
+      <c r="E108" s="56">
+        <v>6</v>
+      </c>
+      <c r="F108" s="56">
         <v>9</v>
       </c>
       <c r="G108" s="41">
         <v>9</v>
       </c>
-      <c r="H108" s="63">
-        <v>3</v>
-      </c>
-      <c r="I108" s="63">
+      <c r="H108" s="56">
+        <v>3</v>
+      </c>
+      <c r="I108" s="56">
         <v>6</v>
       </c>
       <c r="J108" s="47">
         <v>9</v>
       </c>
-      <c r="K108" s="63">
-        <v>9</v>
-      </c>
-      <c r="L108" s="63">
-        <v>3</v>
-      </c>
-      <c r="M108" s="63">
-        <v>6</v>
-      </c>
-      <c r="N108" s="63">
+      <c r="K108" s="56">
+        <v>9</v>
+      </c>
+      <c r="L108" s="56">
+        <v>3</v>
+      </c>
+      <c r="M108" s="56">
+        <v>6</v>
+      </c>
+      <c r="N108" s="56">
         <v>9</v>
       </c>
       <c r="O108" s="43">
@@ -7695,40 +7696,40 @@
       <c r="B110" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="62">
-        <v>6</v>
-      </c>
-      <c r="D110" s="62">
-        <v>9</v>
-      </c>
-      <c r="E110" s="62">
-        <v>3</v>
-      </c>
-      <c r="F110" s="62">
+      <c r="C110" s="55">
+        <v>6</v>
+      </c>
+      <c r="D110" s="55">
+        <v>9</v>
+      </c>
+      <c r="E110" s="55">
+        <v>3</v>
+      </c>
+      <c r="F110" s="55">
         <v>6</v>
       </c>
       <c r="G110" s="22">
         <v>6</v>
       </c>
-      <c r="H110" s="62">
-        <v>9</v>
-      </c>
-      <c r="I110" s="62">
+      <c r="H110" s="55">
+        <v>9</v>
+      </c>
+      <c r="I110" s="55">
         <v>6</v>
       </c>
       <c r="J110" s="24">
         <v>6</v>
       </c>
-      <c r="K110" s="62">
-        <v>6</v>
-      </c>
-      <c r="L110" s="62">
-        <v>9</v>
-      </c>
-      <c r="M110" s="62">
-        <v>6</v>
-      </c>
-      <c r="N110" s="62">
+      <c r="K110" s="55">
+        <v>6</v>
+      </c>
+      <c r="L110" s="55">
+        <v>9</v>
+      </c>
+      <c r="M110" s="55">
+        <v>6</v>
+      </c>
+      <c r="N110" s="55">
         <v>6</v>
       </c>
       <c r="O110" s="25">
@@ -7758,40 +7759,40 @@
       <c r="B111" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C111" s="62">
-        <v>6</v>
-      </c>
-      <c r="D111" s="62">
-        <v>3</v>
-      </c>
-      <c r="E111" s="62">
-        <v>3</v>
-      </c>
-      <c r="F111" s="62">
+      <c r="C111" s="55">
+        <v>6</v>
+      </c>
+      <c r="D111" s="55">
+        <v>3</v>
+      </c>
+      <c r="E111" s="55">
+        <v>3</v>
+      </c>
+      <c r="F111" s="55">
         <v>6</v>
       </c>
       <c r="G111" s="22">
         <v>6</v>
       </c>
-      <c r="H111" s="62">
-        <v>3</v>
-      </c>
-      <c r="I111" s="62">
+      <c r="H111" s="55">
+        <v>3</v>
+      </c>
+      <c r="I111" s="55">
         <v>3</v>
       </c>
       <c r="J111" s="24">
         <v>6</v>
       </c>
-      <c r="K111" s="62">
-        <v>6</v>
-      </c>
-      <c r="L111" s="62">
-        <v>3</v>
-      </c>
-      <c r="M111" s="62">
-        <v>3</v>
-      </c>
-      <c r="N111" s="62">
+      <c r="K111" s="55">
+        <v>6</v>
+      </c>
+      <c r="L111" s="55">
+        <v>3</v>
+      </c>
+      <c r="M111" s="55">
+        <v>3</v>
+      </c>
+      <c r="N111" s="55">
         <v>6</v>
       </c>
       <c r="O111" s="25">
@@ -7821,40 +7822,40 @@
       <c r="B112" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="62">
-        <v>9</v>
-      </c>
-      <c r="D112" s="62">
-        <v>3</v>
-      </c>
-      <c r="E112" s="62">
-        <v>12</v>
-      </c>
-      <c r="F112" s="62">
+      <c r="C112" s="55">
+        <v>9</v>
+      </c>
+      <c r="D112" s="55">
+        <v>3</v>
+      </c>
+      <c r="E112" s="55">
+        <v>12</v>
+      </c>
+      <c r="F112" s="55">
         <v>9</v>
       </c>
       <c r="G112" s="22">
         <v>6</v>
       </c>
-      <c r="H112" s="62">
-        <v>6</v>
-      </c>
-      <c r="I112" s="62">
+      <c r="H112" s="55">
+        <v>6</v>
+      </c>
+      <c r="I112" s="55">
         <v>9</v>
       </c>
       <c r="J112" s="24">
         <v>9</v>
       </c>
-      <c r="K112" s="62">
-        <v>6</v>
-      </c>
-      <c r="L112" s="62">
-        <v>6</v>
-      </c>
-      <c r="M112" s="62">
-        <v>9</v>
-      </c>
-      <c r="N112" s="62">
+      <c r="K112" s="55">
+        <v>6</v>
+      </c>
+      <c r="L112" s="55">
+        <v>6</v>
+      </c>
+      <c r="M112" s="55">
+        <v>9</v>
+      </c>
+      <c r="N112" s="55">
         <v>9</v>
       </c>
       <c r="O112" s="25">
@@ -7909,40 +7910,40 @@
       <c r="B114" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="63">
-        <v>6</v>
-      </c>
-      <c r="D114" s="63">
-        <v>9</v>
-      </c>
-      <c r="E114" s="63">
-        <v>6</v>
-      </c>
-      <c r="F114" s="63">
+      <c r="C114" s="56">
+        <v>6</v>
+      </c>
+      <c r="D114" s="56">
+        <v>9</v>
+      </c>
+      <c r="E114" s="56">
+        <v>6</v>
+      </c>
+      <c r="F114" s="56">
         <v>6</v>
       </c>
       <c r="G114" s="41">
         <v>6</v>
       </c>
-      <c r="H114" s="63">
-        <v>6</v>
-      </c>
-      <c r="I114" s="63">
+      <c r="H114" s="56">
+        <v>6</v>
+      </c>
+      <c r="I114" s="56">
         <v>6</v>
       </c>
       <c r="J114" s="47">
         <v>6</v>
       </c>
-      <c r="K114" s="63">
-        <v>6</v>
-      </c>
-      <c r="L114" s="63">
-        <v>6</v>
-      </c>
-      <c r="M114" s="63">
-        <v>6</v>
-      </c>
-      <c r="N114" s="63">
+      <c r="K114" s="56">
+        <v>6</v>
+      </c>
+      <c r="L114" s="56">
+        <v>6</v>
+      </c>
+      <c r="M114" s="56">
+        <v>6</v>
+      </c>
+      <c r="N114" s="56">
         <v>6</v>
       </c>
       <c r="O114" s="43">
@@ -7997,40 +7998,40 @@
       <c r="B116" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C116" s="63">
+      <c r="C116" s="56">
         <v>18</v>
       </c>
-      <c r="D116" s="63">
-        <v>12</v>
-      </c>
-      <c r="E116" s="63">
+      <c r="D116" s="56">
+        <v>12</v>
+      </c>
+      <c r="E116" s="56">
         <v>24</v>
       </c>
-      <c r="F116" s="63">
+      <c r="F116" s="56">
         <v>9</v>
       </c>
       <c r="G116" s="41">
         <v>18</v>
       </c>
-      <c r="H116" s="63">
-        <v>12</v>
-      </c>
-      <c r="I116" s="63">
+      <c r="H116" s="56">
+        <v>12</v>
+      </c>
+      <c r="I116" s="56">
         <v>18</v>
       </c>
       <c r="J116" s="47">
         <v>12</v>
       </c>
-      <c r="K116" s="63">
+      <c r="K116" s="56">
         <v>18</v>
       </c>
-      <c r="L116" s="63">
-        <v>12</v>
-      </c>
-      <c r="M116" s="63">
+      <c r="L116" s="56">
+        <v>12</v>
+      </c>
+      <c r="M116" s="56">
         <v>18</v>
       </c>
-      <c r="N116" s="63">
+      <c r="N116" s="56">
         <v>12</v>
       </c>
       <c r="O116" s="43">
@@ -8085,40 +8086,40 @@
       <c r="B118" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="62">
-        <v>9</v>
-      </c>
-      <c r="D118" s="62">
+      <c r="C118" s="55">
+        <v>9</v>
+      </c>
+      <c r="D118" s="55">
         <v>36</v>
       </c>
-      <c r="E118" s="62">
-        <v>12</v>
-      </c>
-      <c r="F118" s="62">
+      <c r="E118" s="55">
+        <v>12</v>
+      </c>
+      <c r="F118" s="55">
         <v>42</v>
       </c>
       <c r="G118" s="22">
         <v>15</v>
       </c>
-      <c r="H118" s="62">
+      <c r="H118" s="55">
         <v>24</v>
       </c>
-      <c r="I118" s="62">
+      <c r="I118" s="55">
         <v>21</v>
       </c>
       <c r="J118" s="24">
         <v>27</v>
       </c>
-      <c r="K118" s="62">
+      <c r="K118" s="55">
         <v>18</v>
       </c>
-      <c r="L118" s="62">
+      <c r="L118" s="55">
         <v>24</v>
       </c>
-      <c r="M118" s="62">
+      <c r="M118" s="55">
         <v>21</v>
       </c>
-      <c r="N118" s="62">
+      <c r="N118" s="55">
         <v>24</v>
       </c>
       <c r="O118" s="25">
@@ -8148,40 +8149,40 @@
       <c r="B119" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="62">
-        <v>3</v>
-      </c>
-      <c r="D119" s="62">
-        <v>3</v>
-      </c>
-      <c r="E119" s="62">
-        <v>3</v>
-      </c>
-      <c r="F119" s="62">
+      <c r="C119" s="55">
+        <v>3</v>
+      </c>
+      <c r="D119" s="55">
+        <v>3</v>
+      </c>
+      <c r="E119" s="55">
+        <v>3</v>
+      </c>
+      <c r="F119" s="55">
         <v>3</v>
       </c>
       <c r="G119" s="22">
         <v>3</v>
       </c>
-      <c r="H119" s="62">
-        <v>3</v>
-      </c>
-      <c r="I119" s="62">
+      <c r="H119" s="55">
+        <v>3</v>
+      </c>
+      <c r="I119" s="55">
         <v>3</v>
       </c>
       <c r="J119" s="24">
         <v>3</v>
       </c>
-      <c r="K119" s="62">
-        <v>3</v>
-      </c>
-      <c r="L119" s="62">
-        <v>3</v>
-      </c>
-      <c r="M119" s="62">
-        <v>3</v>
-      </c>
-      <c r="N119" s="62">
+      <c r="K119" s="55">
+        <v>3</v>
+      </c>
+      <c r="L119" s="55">
+        <v>3</v>
+      </c>
+      <c r="M119" s="55">
+        <v>3</v>
+      </c>
+      <c r="N119" s="55">
         <v>3</v>
       </c>
       <c r="O119" s="25">
@@ -8211,40 +8212,40 @@
       <c r="B120" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C120" s="62">
-        <v>3</v>
-      </c>
-      <c r="D120" s="62">
-        <v>3</v>
-      </c>
-      <c r="E120" s="62">
-        <v>3</v>
-      </c>
-      <c r="F120" s="62">
+      <c r="C120" s="55">
+        <v>3</v>
+      </c>
+      <c r="D120" s="55">
+        <v>3</v>
+      </c>
+      <c r="E120" s="55">
+        <v>3</v>
+      </c>
+      <c r="F120" s="55">
         <v>3</v>
       </c>
       <c r="G120" s="22">
         <v>3</v>
       </c>
-      <c r="H120" s="62">
-        <v>3</v>
-      </c>
-      <c r="I120" s="62">
+      <c r="H120" s="55">
+        <v>3</v>
+      </c>
+      <c r="I120" s="55">
         <v>3</v>
       </c>
       <c r="J120" s="24">
         <v>3</v>
       </c>
-      <c r="K120" s="62">
-        <v>3</v>
-      </c>
-      <c r="L120" s="62">
-        <v>3</v>
-      </c>
-      <c r="M120" s="62">
-        <v>3</v>
-      </c>
-      <c r="N120" s="62">
+      <c r="K120" s="55">
+        <v>3</v>
+      </c>
+      <c r="L120" s="55">
+        <v>3</v>
+      </c>
+      <c r="M120" s="55">
+        <v>3</v>
+      </c>
+      <c r="N120" s="55">
         <v>3</v>
       </c>
       <c r="O120" s="25">
@@ -8274,40 +8275,40 @@
       <c r="B121" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C121" s="62">
-        <v>9</v>
-      </c>
-      <c r="D121" s="62">
-        <v>3</v>
-      </c>
-      <c r="E121" s="62">
+      <c r="C121" s="55">
+        <v>9</v>
+      </c>
+      <c r="D121" s="55">
+        <v>3</v>
+      </c>
+      <c r="E121" s="55">
         <v>15</v>
       </c>
-      <c r="F121" s="62">
+      <c r="F121" s="55">
         <v>6</v>
       </c>
       <c r="G121" s="22">
         <v>9</v>
       </c>
-      <c r="H121" s="62">
-        <v>6</v>
-      </c>
-      <c r="I121" s="62">
+      <c r="H121" s="55">
+        <v>6</v>
+      </c>
+      <c r="I121" s="55">
         <v>12</v>
       </c>
       <c r="J121" s="24">
         <v>6</v>
       </c>
-      <c r="K121" s="62">
-        <v>9</v>
-      </c>
-      <c r="L121" s="62">
-        <v>6</v>
-      </c>
-      <c r="M121" s="62">
-        <v>12</v>
-      </c>
-      <c r="N121" s="62">
+      <c r="K121" s="55">
+        <v>9</v>
+      </c>
+      <c r="L121" s="55">
+        <v>6</v>
+      </c>
+      <c r="M121" s="55">
+        <v>12</v>
+      </c>
+      <c r="N121" s="55">
         <v>6</v>
       </c>
       <c r="O121" s="25">
@@ -8337,40 +8338,40 @@
       <c r="B122" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C122" s="62">
-        <v>3</v>
-      </c>
-      <c r="D122" s="62">
-        <v>3</v>
-      </c>
-      <c r="E122" s="62">
-        <v>3</v>
-      </c>
-      <c r="F122" s="62">
+      <c r="C122" s="55">
+        <v>3</v>
+      </c>
+      <c r="D122" s="55">
+        <v>3</v>
+      </c>
+      <c r="E122" s="55">
+        <v>3</v>
+      </c>
+      <c r="F122" s="55">
         <v>3</v>
       </c>
       <c r="G122" s="22">
         <v>3</v>
       </c>
-      <c r="H122" s="62">
-        <v>3</v>
-      </c>
-      <c r="I122" s="62">
+      <c r="H122" s="55">
+        <v>3</v>
+      </c>
+      <c r="I122" s="55">
         <v>3</v>
       </c>
       <c r="J122" s="24">
         <v>3</v>
       </c>
-      <c r="K122" s="62">
-        <v>3</v>
-      </c>
-      <c r="L122" s="62">
-        <v>3</v>
-      </c>
-      <c r="M122" s="62">
-        <v>3</v>
-      </c>
-      <c r="N122" s="62">
+      <c r="K122" s="55">
+        <v>3</v>
+      </c>
+      <c r="L122" s="55">
+        <v>3</v>
+      </c>
+      <c r="M122" s="55">
+        <v>3</v>
+      </c>
+      <c r="N122" s="55">
         <v>3</v>
       </c>
       <c r="O122" s="25">
@@ -8400,40 +8401,40 @@
       <c r="B123" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C123" s="62">
-        <v>3</v>
-      </c>
-      <c r="D123" s="62">
-        <v>3</v>
-      </c>
-      <c r="E123" s="62">
-        <v>3</v>
-      </c>
-      <c r="F123" s="62">
+      <c r="C123" s="55">
+        <v>3</v>
+      </c>
+      <c r="D123" s="55">
+        <v>3</v>
+      </c>
+      <c r="E123" s="55">
+        <v>3</v>
+      </c>
+      <c r="F123" s="55">
         <v>3</v>
       </c>
       <c r="G123" s="22">
         <v>3</v>
       </c>
-      <c r="H123" s="62">
-        <v>3</v>
-      </c>
-      <c r="I123" s="62">
+      <c r="H123" s="55">
+        <v>3</v>
+      </c>
+      <c r="I123" s="55">
         <v>3</v>
       </c>
       <c r="J123" s="24">
         <v>3</v>
       </c>
-      <c r="K123" s="62">
-        <v>3</v>
-      </c>
-      <c r="L123" s="62">
-        <v>3</v>
-      </c>
-      <c r="M123" s="62">
-        <v>3</v>
-      </c>
-      <c r="N123" s="62">
+      <c r="K123" s="55">
+        <v>3</v>
+      </c>
+      <c r="L123" s="55">
+        <v>3</v>
+      </c>
+      <c r="M123" s="55">
+        <v>3</v>
+      </c>
+      <c r="N123" s="55">
         <v>3</v>
       </c>
       <c r="O123" s="25">
@@ -8463,40 +8464,40 @@
       <c r="B124" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C124" s="62">
-        <v>3</v>
-      </c>
-      <c r="D124" s="62">
-        <v>3</v>
-      </c>
-      <c r="E124" s="62">
-        <v>3</v>
-      </c>
-      <c r="F124" s="62">
+      <c r="C124" s="55">
+        <v>3</v>
+      </c>
+      <c r="D124" s="55">
+        <v>3</v>
+      </c>
+      <c r="E124" s="55">
+        <v>3</v>
+      </c>
+      <c r="F124" s="55">
         <v>3</v>
       </c>
       <c r="G124" s="22">
         <v>3</v>
       </c>
-      <c r="H124" s="62">
-        <v>3</v>
-      </c>
-      <c r="I124" s="62">
+      <c r="H124" s="55">
+        <v>3</v>
+      </c>
+      <c r="I124" s="55">
         <v>3</v>
       </c>
       <c r="J124" s="24">
         <v>3</v>
       </c>
-      <c r="K124" s="62">
-        <v>3</v>
-      </c>
-      <c r="L124" s="62">
-        <v>3</v>
-      </c>
-      <c r="M124" s="62">
-        <v>3</v>
-      </c>
-      <c r="N124" s="62">
+      <c r="K124" s="55">
+        <v>3</v>
+      </c>
+      <c r="L124" s="55">
+        <v>3</v>
+      </c>
+      <c r="M124" s="55">
+        <v>3</v>
+      </c>
+      <c r="N124" s="55">
         <v>3</v>
       </c>
       <c r="O124" s="25">
@@ -8526,40 +8527,40 @@
       <c r="B125" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C125" s="62">
-        <v>12</v>
-      </c>
-      <c r="D125" s="62">
-        <v>3</v>
-      </c>
-      <c r="E125" s="62">
+      <c r="C125" s="55">
+        <v>12</v>
+      </c>
+      <c r="D125" s="55">
+        <v>3</v>
+      </c>
+      <c r="E125" s="55">
         <v>18</v>
       </c>
-      <c r="F125" s="62">
+      <c r="F125" s="55">
         <v>3</v>
       </c>
       <c r="G125" s="22">
         <v>12</v>
       </c>
-      <c r="H125" s="62">
-        <v>9</v>
-      </c>
-      <c r="I125" s="62">
+      <c r="H125" s="55">
+        <v>9</v>
+      </c>
+      <c r="I125" s="55">
         <v>12</v>
       </c>
       <c r="J125" s="24">
         <v>6</v>
       </c>
-      <c r="K125" s="62">
-        <v>12</v>
-      </c>
-      <c r="L125" s="62">
-        <v>9</v>
-      </c>
-      <c r="M125" s="62">
-        <v>12</v>
-      </c>
-      <c r="N125" s="62">
+      <c r="K125" s="55">
+        <v>12</v>
+      </c>
+      <c r="L125" s="55">
+        <v>9</v>
+      </c>
+      <c r="M125" s="55">
+        <v>12</v>
+      </c>
+      <c r="N125" s="55">
         <v>6</v>
       </c>
       <c r="O125" s="25">
@@ -8589,40 +8590,40 @@
       <c r="B126" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C126" s="62">
-        <v>9</v>
-      </c>
-      <c r="D126" s="62">
-        <v>3</v>
-      </c>
-      <c r="E126" s="62">
-        <v>12</v>
-      </c>
-      <c r="F126" s="62">
+      <c r="C126" s="55">
+        <v>9</v>
+      </c>
+      <c r="D126" s="55">
+        <v>3</v>
+      </c>
+      <c r="E126" s="55">
+        <v>12</v>
+      </c>
+      <c r="F126" s="55">
         <v>3</v>
       </c>
       <c r="G126" s="22">
         <v>9</v>
       </c>
-      <c r="H126" s="62">
-        <v>3</v>
-      </c>
-      <c r="I126" s="62">
+      <c r="H126" s="55">
+        <v>3</v>
+      </c>
+      <c r="I126" s="55">
         <v>12</v>
       </c>
       <c r="J126" s="24">
         <v>6</v>
       </c>
-      <c r="K126" s="62">
-        <v>9</v>
-      </c>
-      <c r="L126" s="62">
-        <v>6</v>
-      </c>
-      <c r="M126" s="62">
-        <v>12</v>
-      </c>
-      <c r="N126" s="62">
+      <c r="K126" s="55">
+        <v>9</v>
+      </c>
+      <c r="L126" s="55">
+        <v>6</v>
+      </c>
+      <c r="M126" s="55">
+        <v>12</v>
+      </c>
+      <c r="N126" s="55">
         <v>6</v>
       </c>
       <c r="O126" s="25">
@@ -8677,40 +8678,40 @@
       <c r="B128" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C128" s="62">
-        <v>9</v>
-      </c>
-      <c r="D128" s="62">
+      <c r="C128" s="55">
+        <v>9</v>
+      </c>
+      <c r="D128" s="55">
         <v>39</v>
       </c>
-      <c r="E128" s="62">
-        <v>12</v>
-      </c>
-      <c r="F128" s="62">
+      <c r="E128" s="55">
+        <v>12</v>
+      </c>
+      <c r="F128" s="55">
         <v>27</v>
       </c>
       <c r="G128" s="22">
         <v>18</v>
       </c>
-      <c r="H128" s="62">
+      <c r="H128" s="55">
         <v>24</v>
       </c>
-      <c r="I128" s="62">
+      <c r="I128" s="55">
         <v>21</v>
       </c>
       <c r="J128" s="24">
         <v>18</v>
       </c>
-      <c r="K128" s="62">
+      <c r="K128" s="55">
         <v>18</v>
       </c>
-      <c r="L128" s="62">
+      <c r="L128" s="55">
         <v>21</v>
       </c>
-      <c r="M128" s="62">
+      <c r="M128" s="55">
         <v>21</v>
       </c>
-      <c r="N128" s="62">
+      <c r="N128" s="55">
         <v>18</v>
       </c>
       <c r="O128" s="25">
@@ -8740,40 +8741,40 @@
       <c r="B129" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C129" s="62">
-        <v>12</v>
-      </c>
-      <c r="D129" s="62">
+      <c r="C129" s="55">
+        <v>12</v>
+      </c>
+      <c r="D129" s="55">
         <v>36</v>
       </c>
-      <c r="E129" s="62">
-        <v>12</v>
-      </c>
-      <c r="F129" s="62">
+      <c r="E129" s="55">
+        <v>12</v>
+      </c>
+      <c r="F129" s="55">
         <v>24</v>
       </c>
       <c r="G129" s="22">
         <v>21</v>
       </c>
-      <c r="H129" s="62">
+      <c r="H129" s="55">
         <v>24</v>
       </c>
-      <c r="I129" s="62">
+      <c r="I129" s="55">
         <v>24</v>
       </c>
       <c r="J129" s="24">
         <v>21</v>
       </c>
-      <c r="K129" s="62">
+      <c r="K129" s="55">
         <v>21</v>
       </c>
-      <c r="L129" s="62">
+      <c r="L129" s="55">
         <v>24</v>
       </c>
-      <c r="M129" s="62">
+      <c r="M129" s="55">
         <v>24</v>
       </c>
-      <c r="N129" s="62">
+      <c r="N129" s="55">
         <v>21</v>
       </c>
       <c r="O129" s="25">
@@ -8803,40 +8804,40 @@
       <c r="B130" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C130" s="62">
+      <c r="C130" s="55">
         <v>15</v>
       </c>
-      <c r="D130" s="62">
+      <c r="D130" s="55">
         <v>45</v>
       </c>
-      <c r="E130" s="62">
+      <c r="E130" s="55">
         <v>18</v>
       </c>
-      <c r="F130" s="62">
+      <c r="F130" s="55">
         <v>27</v>
       </c>
       <c r="G130" s="22">
         <v>24</v>
       </c>
-      <c r="H130" s="62">
+      <c r="H130" s="55">
         <v>27</v>
       </c>
-      <c r="I130" s="62">
+      <c r="I130" s="55">
         <v>27</v>
       </c>
       <c r="J130" s="24">
         <v>27</v>
       </c>
-      <c r="K130" s="62">
+      <c r="K130" s="55">
         <v>24</v>
       </c>
-      <c r="L130" s="62">
+      <c r="L130" s="55">
         <v>27</v>
       </c>
-      <c r="M130" s="62">
+      <c r="M130" s="55">
         <v>27</v>
       </c>
-      <c r="N130" s="62">
+      <c r="N130" s="55">
         <v>27</v>
       </c>
       <c r="O130" s="25">
@@ -8891,40 +8892,40 @@
       <c r="B132" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C132" s="62">
-        <v>9</v>
-      </c>
-      <c r="D132" s="62">
+      <c r="C132" s="55">
+        <v>9</v>
+      </c>
+      <c r="D132" s="55">
         <v>24</v>
       </c>
-      <c r="E132" s="62">
-        <v>6</v>
-      </c>
-      <c r="F132" s="62">
+      <c r="E132" s="55">
+        <v>6</v>
+      </c>
+      <c r="F132" s="55">
         <v>27</v>
       </c>
       <c r="G132" s="22">
         <v>9</v>
       </c>
-      <c r="H132" s="62">
+      <c r="H132" s="55">
         <v>21</v>
       </c>
-      <c r="I132" s="62">
+      <c r="I132" s="55">
         <v>15</v>
       </c>
       <c r="J132" s="24">
         <v>24</v>
       </c>
-      <c r="K132" s="62">
+      <c r="K132" s="55">
         <v>15</v>
       </c>
-      <c r="L132" s="62">
+      <c r="L132" s="55">
         <v>21</v>
       </c>
-      <c r="M132" s="62">
+      <c r="M132" s="55">
         <v>15</v>
       </c>
-      <c r="N132" s="62">
+      <c r="N132" s="55">
         <v>21</v>
       </c>
       <c r="O132" s="25">
@@ -8979,40 +8980,40 @@
       <c r="B134" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C134" s="62">
+      <c r="C134" s="55">
         <v>60</v>
       </c>
-      <c r="D134" s="62">
+      <c r="D134" s="55">
         <v>120</v>
       </c>
-      <c r="E134" s="62">
+      <c r="E134" s="55">
         <v>84</v>
       </c>
-      <c r="F134" s="62">
+      <c r="F134" s="55">
         <v>30</v>
       </c>
       <c r="G134" s="22">
         <v>84</v>
       </c>
-      <c r="H134" s="62">
+      <c r="H134" s="55">
         <v>120</v>
       </c>
-      <c r="I134" s="62">
+      <c r="I134" s="55">
         <v>84</v>
       </c>
       <c r="J134" s="24">
         <v>60</v>
       </c>
-      <c r="K134" s="62">
+      <c r="K134" s="55">
         <v>84</v>
       </c>
-      <c r="L134" s="62">
+      <c r="L134" s="55">
         <v>108</v>
       </c>
-      <c r="M134" s="62">
+      <c r="M134" s="55">
         <v>84</v>
       </c>
-      <c r="N134" s="62">
+      <c r="N134" s="55">
         <v>60</v>
       </c>
       <c r="O134" s="25">
@@ -9042,40 +9043,40 @@
       <c r="B135" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C135" s="62">
+      <c r="C135" s="55">
         <v>72</v>
       </c>
-      <c r="D135" s="62">
+      <c r="D135" s="55">
         <v>60</v>
       </c>
-      <c r="E135" s="62">
+      <c r="E135" s="55">
         <v>90</v>
       </c>
-      <c r="F135" s="62">
+      <c r="F135" s="55">
         <v>30</v>
       </c>
       <c r="G135" s="22">
         <v>72</v>
       </c>
-      <c r="H135" s="62">
+      <c r="H135" s="55">
         <v>60</v>
       </c>
-      <c r="I135" s="62">
+      <c r="I135" s="55">
         <v>84</v>
       </c>
       <c r="J135" s="24">
         <v>90</v>
       </c>
-      <c r="K135" s="62">
+      <c r="K135" s="55">
         <v>72</v>
       </c>
-      <c r="L135" s="62">
+      <c r="L135" s="55">
         <v>60</v>
       </c>
-      <c r="M135" s="62">
+      <c r="M135" s="55">
         <v>84</v>
       </c>
-      <c r="N135" s="62">
+      <c r="N135" s="55">
         <v>84</v>
       </c>
       <c r="O135" s="25">
@@ -9130,40 +9131,40 @@
       <c r="B137" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C137" s="62">
-        <v>12</v>
-      </c>
-      <c r="D137" s="62">
-        <v>12</v>
-      </c>
-      <c r="E137" s="62">
-        <v>9</v>
-      </c>
-      <c r="F137" s="62">
+      <c r="C137" s="55">
+        <v>12</v>
+      </c>
+      <c r="D137" s="55">
+        <v>12</v>
+      </c>
+      <c r="E137" s="55">
+        <v>9</v>
+      </c>
+      <c r="F137" s="55">
         <v>9</v>
       </c>
       <c r="G137" s="22">
         <v>12</v>
       </c>
-      <c r="H137" s="62">
-        <v>12</v>
-      </c>
-      <c r="I137" s="62">
+      <c r="H137" s="55">
+        <v>12</v>
+      </c>
+      <c r="I137" s="55">
         <v>9</v>
       </c>
       <c r="J137" s="24">
         <v>9</v>
       </c>
-      <c r="K137" s="62">
-        <v>12</v>
-      </c>
-      <c r="L137" s="62">
-        <v>12</v>
-      </c>
-      <c r="M137" s="62">
-        <v>9</v>
-      </c>
-      <c r="N137" s="62">
+      <c r="K137" s="55">
+        <v>12</v>
+      </c>
+      <c r="L137" s="55">
+        <v>12</v>
+      </c>
+      <c r="M137" s="55">
+        <v>9</v>
+      </c>
+      <c r="N137" s="55">
         <v>9</v>
       </c>
       <c r="O137" s="25">
@@ -9193,40 +9194,40 @@
       <c r="B138" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C138" s="62">
-        <v>3</v>
-      </c>
-      <c r="D138" s="62">
+      <c r="C138" s="55">
+        <v>3</v>
+      </c>
+      <c r="D138" s="55">
         <v>24</v>
       </c>
-      <c r="E138" s="62">
-        <v>9</v>
-      </c>
-      <c r="F138" s="62">
+      <c r="E138" s="55">
+        <v>9</v>
+      </c>
+      <c r="F138" s="55">
         <v>27</v>
       </c>
       <c r="G138" s="22">
         <v>12</v>
       </c>
-      <c r="H138" s="62">
+      <c r="H138" s="55">
         <v>18</v>
       </c>
-      <c r="I138" s="62">
+      <c r="I138" s="55">
         <v>15</v>
       </c>
       <c r="J138" s="24">
         <v>18</v>
       </c>
-      <c r="K138" s="62">
-        <v>12</v>
-      </c>
-      <c r="L138" s="62">
+      <c r="K138" s="55">
+        <v>12</v>
+      </c>
+      <c r="L138" s="55">
         <v>18</v>
       </c>
-      <c r="M138" s="62">
+      <c r="M138" s="55">
         <v>15</v>
       </c>
-      <c r="N138" s="62">
+      <c r="N138" s="55">
         <v>18</v>
       </c>
       <c r="O138" s="25">
@@ -9256,40 +9257,40 @@
       <c r="B139" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C139" s="62">
-        <v>3</v>
-      </c>
-      <c r="D139" s="62">
-        <v>12</v>
-      </c>
-      <c r="E139" s="62">
-        <v>9</v>
-      </c>
-      <c r="F139" s="62">
+      <c r="C139" s="55">
+        <v>3</v>
+      </c>
+      <c r="D139" s="55">
+        <v>12</v>
+      </c>
+      <c r="E139" s="55">
+        <v>9</v>
+      </c>
+      <c r="F139" s="55">
         <v>18</v>
       </c>
       <c r="G139" s="22">
         <v>9</v>
       </c>
-      <c r="H139" s="62">
-        <v>12</v>
-      </c>
-      <c r="I139" s="62">
+      <c r="H139" s="55">
+        <v>12</v>
+      </c>
+      <c r="I139" s="55">
         <v>12</v>
       </c>
       <c r="J139" s="24">
         <v>15</v>
       </c>
-      <c r="K139" s="62">
-        <v>9</v>
-      </c>
-      <c r="L139" s="62">
-        <v>12</v>
-      </c>
-      <c r="M139" s="62">
-        <v>12</v>
-      </c>
-      <c r="N139" s="62">
+      <c r="K139" s="55">
+        <v>9</v>
+      </c>
+      <c r="L139" s="55">
+        <v>12</v>
+      </c>
+      <c r="M139" s="55">
+        <v>12</v>
+      </c>
+      <c r="N139" s="55">
         <v>15</v>
       </c>
       <c r="O139" s="25">
@@ -9319,40 +9320,40 @@
       <c r="B140" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C140" s="63">
-        <v>6</v>
-      </c>
-      <c r="D140" s="63">
+      <c r="C140" s="56">
+        <v>6</v>
+      </c>
+      <c r="D140" s="56">
         <v>15</v>
       </c>
-      <c r="E140" s="63">
-        <v>6</v>
-      </c>
-      <c r="F140" s="63">
+      <c r="E140" s="56">
+        <v>6</v>
+      </c>
+      <c r="F140" s="56">
         <v>9</v>
       </c>
       <c r="G140" s="41">
         <v>9</v>
       </c>
-      <c r="H140" s="63">
+      <c r="H140" s="56">
         <v>15</v>
       </c>
-      <c r="I140" s="63">
+      <c r="I140" s="56">
         <v>9</v>
       </c>
       <c r="J140" s="47">
         <v>9</v>
       </c>
-      <c r="K140" s="63">
-        <v>9</v>
-      </c>
-      <c r="L140" s="63">
+      <c r="K140" s="56">
+        <v>9</v>
+      </c>
+      <c r="L140" s="56">
         <v>15</v>
       </c>
-      <c r="M140" s="63">
-        <v>9</v>
-      </c>
-      <c r="N140" s="63">
+      <c r="M140" s="56">
+        <v>9</v>
+      </c>
+      <c r="N140" s="56">
         <v>9</v>
       </c>
       <c r="O140" s="43">
@@ -9407,40 +9408,40 @@
       <c r="B142" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C142" s="62">
-        <v>9</v>
-      </c>
-      <c r="D142" s="62">
+      <c r="C142" s="55">
+        <v>9</v>
+      </c>
+      <c r="D142" s="55">
         <v>21</v>
       </c>
-      <c r="E142" s="62">
-        <v>12</v>
-      </c>
-      <c r="F142" s="62">
+      <c r="E142" s="55">
+        <v>12</v>
+      </c>
+      <c r="F142" s="55">
         <v>27</v>
       </c>
       <c r="G142" s="22">
         <v>15</v>
       </c>
-      <c r="H142" s="62">
+      <c r="H142" s="55">
         <v>21</v>
       </c>
-      <c r="I142" s="62">
+      <c r="I142" s="55">
         <v>21</v>
       </c>
       <c r="J142" s="24">
         <v>21</v>
       </c>
-      <c r="K142" s="62">
+      <c r="K142" s="55">
         <v>15</v>
       </c>
-      <c r="L142" s="62">
+      <c r="L142" s="55">
         <v>21</v>
       </c>
-      <c r="M142" s="62">
+      <c r="M142" s="55">
         <v>21</v>
       </c>
-      <c r="N142" s="62">
+      <c r="N142" s="55">
         <v>21</v>
       </c>
       <c r="O142" s="25">
@@ -9470,40 +9471,40 @@
       <c r="B143" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C143" s="62">
-        <v>12</v>
-      </c>
-      <c r="D143" s="62">
-        <v>6</v>
-      </c>
-      <c r="E143" s="62">
+      <c r="C143" s="55">
+        <v>12</v>
+      </c>
+      <c r="D143" s="55">
+        <v>6</v>
+      </c>
+      <c r="E143" s="55">
         <v>18</v>
       </c>
-      <c r="F143" s="62">
+      <c r="F143" s="55">
         <v>12</v>
       </c>
       <c r="G143" s="22">
         <v>12</v>
       </c>
-      <c r="H143" s="62">
-        <v>9</v>
-      </c>
-      <c r="I143" s="62">
+      <c r="H143" s="55">
+        <v>9</v>
+      </c>
+      <c r="I143" s="55">
         <v>12</v>
       </c>
       <c r="J143" s="24">
         <v>12</v>
       </c>
-      <c r="K143" s="62">
-        <v>12</v>
-      </c>
-      <c r="L143" s="62">
-        <v>9</v>
-      </c>
-      <c r="M143" s="62">
-        <v>12</v>
-      </c>
-      <c r="N143" s="62">
+      <c r="K143" s="55">
+        <v>12</v>
+      </c>
+      <c r="L143" s="55">
+        <v>9</v>
+      </c>
+      <c r="M143" s="55">
+        <v>12</v>
+      </c>
+      <c r="N143" s="55">
         <v>12</v>
       </c>
       <c r="O143" s="25">
@@ -9558,40 +9559,40 @@
       <c r="B145" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C145" s="62">
+      <c r="C145" s="55">
         <v>24</v>
       </c>
-      <c r="D145" s="62">
+      <c r="D145" s="55">
         <v>15</v>
       </c>
-      <c r="E145" s="62">
-        <v>9</v>
-      </c>
-      <c r="F145" s="62">
+      <c r="E145" s="55">
+        <v>9</v>
+      </c>
+      <c r="F145" s="55">
         <v>18</v>
       </c>
       <c r="G145" s="22">
         <v>18</v>
       </c>
-      <c r="H145" s="62">
+      <c r="H145" s="55">
         <v>21</v>
       </c>
-      <c r="I145" s="62">
+      <c r="I145" s="55">
         <v>15</v>
       </c>
       <c r="J145" s="24">
         <v>18</v>
       </c>
-      <c r="K145" s="62">
+      <c r="K145" s="55">
         <v>18</v>
       </c>
-      <c r="L145" s="62">
+      <c r="L145" s="55">
         <v>21</v>
       </c>
-      <c r="M145" s="62">
+      <c r="M145" s="55">
         <v>15</v>
       </c>
-      <c r="N145" s="62">
+      <c r="N145" s="55">
         <v>18</v>
       </c>
       <c r="O145" s="25">
@@ -9621,40 +9622,40 @@
       <c r="B146" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C146" s="62">
-        <v>12</v>
-      </c>
-      <c r="D146" s="62">
-        <v>9</v>
-      </c>
-      <c r="E146" s="62">
+      <c r="C146" s="55">
+        <v>12</v>
+      </c>
+      <c r="D146" s="55">
+        <v>9</v>
+      </c>
+      <c r="E146" s="55">
         <v>18</v>
       </c>
-      <c r="F146" s="62">
+      <c r="F146" s="55">
         <v>9</v>
       </c>
       <c r="G146" s="22">
         <v>12</v>
       </c>
-      <c r="H146" s="62">
-        <v>9</v>
-      </c>
-      <c r="I146" s="62">
+      <c r="H146" s="55">
+        <v>9</v>
+      </c>
+      <c r="I146" s="55">
         <v>15</v>
       </c>
       <c r="J146" s="24">
         <v>12</v>
       </c>
-      <c r="K146" s="62">
-        <v>12</v>
-      </c>
-      <c r="L146" s="62">
-        <v>9</v>
-      </c>
-      <c r="M146" s="62">
+      <c r="K146" s="55">
+        <v>12</v>
+      </c>
+      <c r="L146" s="55">
+        <v>9</v>
+      </c>
+      <c r="M146" s="55">
         <v>15</v>
       </c>
-      <c r="N146" s="62">
+      <c r="N146" s="55">
         <v>12</v>
       </c>
       <c r="O146" s="25">
@@ -9684,40 +9685,40 @@
       <c r="B147" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C147" s="62">
-        <v>9</v>
-      </c>
-      <c r="D147" s="62">
-        <v>12</v>
-      </c>
-      <c r="E147" s="62">
-        <v>12</v>
-      </c>
-      <c r="F147" s="62">
+      <c r="C147" s="55">
+        <v>9</v>
+      </c>
+      <c r="D147" s="55">
+        <v>12</v>
+      </c>
+      <c r="E147" s="55">
+        <v>12</v>
+      </c>
+      <c r="F147" s="55">
         <v>3</v>
       </c>
       <c r="G147" s="22">
         <v>9</v>
       </c>
-      <c r="H147" s="62">
-        <v>12</v>
-      </c>
-      <c r="I147" s="62">
+      <c r="H147" s="55">
+        <v>12</v>
+      </c>
+      <c r="I147" s="55">
         <v>9</v>
       </c>
       <c r="J147" s="24">
         <v>6</v>
       </c>
-      <c r="K147" s="62">
-        <v>9</v>
-      </c>
-      <c r="L147" s="62">
-        <v>12</v>
-      </c>
-      <c r="M147" s="62">
-        <v>9</v>
-      </c>
-      <c r="N147" s="62">
+      <c r="K147" s="55">
+        <v>9</v>
+      </c>
+      <c r="L147" s="55">
+        <v>12</v>
+      </c>
+      <c r="M147" s="55">
+        <v>9</v>
+      </c>
+      <c r="N147" s="55">
         <v>6</v>
       </c>
       <c r="O147" s="25">
@@ -9772,40 +9773,40 @@
       <c r="B149" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C149" s="63">
+      <c r="C149" s="56">
         <v>15</v>
       </c>
-      <c r="D149" s="63">
+      <c r="D149" s="56">
         <v>21</v>
       </c>
-      <c r="E149" s="63">
-        <v>9</v>
-      </c>
-      <c r="F149" s="63">
+      <c r="E149" s="56">
+        <v>9</v>
+      </c>
+      <c r="F149" s="56">
         <v>27</v>
       </c>
       <c r="G149" s="41">
         <v>18</v>
       </c>
-      <c r="H149" s="63">
+      <c r="H149" s="56">
         <v>18</v>
       </c>
-      <c r="I149" s="63">
+      <c r="I149" s="56">
         <v>18</v>
       </c>
       <c r="J149" s="47">
         <v>21</v>
       </c>
-      <c r="K149" s="63">
+      <c r="K149" s="56">
         <v>18</v>
       </c>
-      <c r="L149" s="63">
+      <c r="L149" s="56">
         <v>18</v>
       </c>
-      <c r="M149" s="63">
+      <c r="M149" s="56">
         <v>18</v>
       </c>
-      <c r="N149" s="63">
+      <c r="N149" s="56">
         <v>21</v>
       </c>
       <c r="O149" s="43">
@@ -9860,40 +9861,40 @@
       <c r="B151" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="C151" s="62">
-        <v>6</v>
-      </c>
-      <c r="D151" s="62">
-        <v>9</v>
-      </c>
-      <c r="E151" s="62">
-        <v>3</v>
-      </c>
-      <c r="F151" s="62">
+      <c r="C151" s="55">
+        <v>6</v>
+      </c>
+      <c r="D151" s="55">
+        <v>9</v>
+      </c>
+      <c r="E151" s="55">
+        <v>3</v>
+      </c>
+      <c r="F151" s="55">
         <v>3</v>
       </c>
       <c r="G151" s="22">
         <v>6</v>
       </c>
-      <c r="H151" s="62">
-        <v>9</v>
-      </c>
-      <c r="I151" s="62">
+      <c r="H151" s="55">
+        <v>9</v>
+      </c>
+      <c r="I151" s="55">
         <v>3</v>
       </c>
       <c r="J151" s="24">
         <v>3</v>
       </c>
-      <c r="K151" s="62">
-        <v>6</v>
-      </c>
-      <c r="L151" s="62">
-        <v>9</v>
-      </c>
-      <c r="M151" s="62">
-        <v>3</v>
-      </c>
-      <c r="N151" s="62">
+      <c r="K151" s="55">
+        <v>6</v>
+      </c>
+      <c r="L151" s="55">
+        <v>9</v>
+      </c>
+      <c r="M151" s="55">
+        <v>3</v>
+      </c>
+      <c r="N151" s="55">
         <v>3</v>
       </c>
       <c r="O151" s="25">
@@ -9923,40 +9924,40 @@
       <c r="B152" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C152" s="62">
-        <v>6</v>
-      </c>
-      <c r="D152" s="62">
-        <v>3</v>
-      </c>
-      <c r="E152" s="62">
-        <v>3</v>
-      </c>
-      <c r="F152" s="62">
+      <c r="C152" s="55">
+        <v>6</v>
+      </c>
+      <c r="D152" s="55">
+        <v>3</v>
+      </c>
+      <c r="E152" s="55">
+        <v>3</v>
+      </c>
+      <c r="F152" s="55">
         <v>6</v>
       </c>
       <c r="G152" s="22">
         <v>6</v>
       </c>
-      <c r="H152" s="62">
-        <v>3</v>
-      </c>
-      <c r="I152" s="62">
+      <c r="H152" s="55">
+        <v>3</v>
+      </c>
+      <c r="I152" s="55">
         <v>3</v>
       </c>
       <c r="J152" s="24">
         <v>6</v>
       </c>
-      <c r="K152" s="62">
-        <v>6</v>
-      </c>
-      <c r="L152" s="62">
-        <v>3</v>
-      </c>
-      <c r="M152" s="62">
-        <v>3</v>
-      </c>
-      <c r="N152" s="62">
+      <c r="K152" s="55">
+        <v>6</v>
+      </c>
+      <c r="L152" s="55">
+        <v>3</v>
+      </c>
+      <c r="M152" s="55">
+        <v>3</v>
+      </c>
+      <c r="N152" s="55">
         <v>6</v>
       </c>
       <c r="O152" s="25">
@@ -9986,40 +9987,40 @@
       <c r="B153" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="C153" s="62">
-        <v>9</v>
-      </c>
-      <c r="D153" s="62">
+      <c r="C153" s="55">
+        <v>9</v>
+      </c>
+      <c r="D153" s="55">
         <v>18</v>
       </c>
-      <c r="E153" s="62">
-        <v>12</v>
-      </c>
-      <c r="F153" s="62">
+      <c r="E153" s="55">
+        <v>12</v>
+      </c>
+      <c r="F153" s="55">
         <v>24</v>
       </c>
       <c r="G153" s="22">
         <v>12</v>
       </c>
-      <c r="H153" s="62">
+      <c r="H153" s="55">
         <v>15</v>
       </c>
-      <c r="I153" s="62">
+      <c r="I153" s="55">
         <v>15</v>
       </c>
       <c r="J153" s="24">
         <v>21</v>
       </c>
-      <c r="K153" s="62">
+      <c r="K153" s="55">
         <v>15</v>
       </c>
-      <c r="L153" s="62">
+      <c r="L153" s="55">
         <v>15</v>
       </c>
-      <c r="M153" s="62">
+      <c r="M153" s="55">
         <v>15</v>
       </c>
-      <c r="N153" s="62">
+      <c r="N153" s="55">
         <v>21</v>
       </c>
       <c r="O153" s="25">
@@ -10049,40 +10050,40 @@
       <c r="B154" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C154" s="62">
-        <v>3</v>
-      </c>
-      <c r="D154" s="62">
-        <v>9</v>
-      </c>
-      <c r="E154" s="62">
-        <v>3</v>
-      </c>
-      <c r="F154" s="62">
+      <c r="C154" s="55">
+        <v>3</v>
+      </c>
+      <c r="D154" s="55">
+        <v>9</v>
+      </c>
+      <c r="E154" s="55">
+        <v>3</v>
+      </c>
+      <c r="F154" s="55">
         <v>15</v>
       </c>
       <c r="G154" s="22">
         <v>6</v>
       </c>
-      <c r="H154" s="62">
-        <v>9</v>
-      </c>
-      <c r="I154" s="62">
+      <c r="H154" s="55">
+        <v>9</v>
+      </c>
+      <c r="I154" s="55">
         <v>6</v>
       </c>
       <c r="J154" s="24">
         <v>12</v>
       </c>
-      <c r="K154" s="62">
-        <v>6</v>
-      </c>
-      <c r="L154" s="62">
-        <v>9</v>
-      </c>
-      <c r="M154" s="62">
-        <v>6</v>
-      </c>
-      <c r="N154" s="62">
+      <c r="K154" s="55">
+        <v>6</v>
+      </c>
+      <c r="L154" s="55">
+        <v>9</v>
+      </c>
+      <c r="M154" s="55">
+        <v>6</v>
+      </c>
+      <c r="N154" s="55">
         <v>12</v>
       </c>
       <c r="O154" s="25">
@@ -10112,40 +10113,40 @@
       <c r="B155" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C155" s="62">
-        <v>3</v>
-      </c>
-      <c r="D155" s="62">
-        <v>3</v>
-      </c>
-      <c r="E155" s="62">
-        <v>3</v>
-      </c>
-      <c r="F155" s="62">
+      <c r="C155" s="55">
+        <v>3</v>
+      </c>
+      <c r="D155" s="55">
+        <v>3</v>
+      </c>
+      <c r="E155" s="55">
+        <v>3</v>
+      </c>
+      <c r="F155" s="55">
         <v>6</v>
       </c>
       <c r="G155" s="22">
         <v>6</v>
       </c>
-      <c r="H155" s="62">
-        <v>3</v>
-      </c>
-      <c r="I155" s="62">
+      <c r="H155" s="55">
+        <v>3</v>
+      </c>
+      <c r="I155" s="55">
         <v>6</v>
       </c>
       <c r="J155" s="24">
         <v>6</v>
       </c>
-      <c r="K155" s="62">
-        <v>6</v>
-      </c>
-      <c r="L155" s="62">
-        <v>3</v>
-      </c>
-      <c r="M155" s="62">
-        <v>6</v>
-      </c>
-      <c r="N155" s="62">
+      <c r="K155" s="55">
+        <v>6</v>
+      </c>
+      <c r="L155" s="55">
+        <v>3</v>
+      </c>
+      <c r="M155" s="55">
+        <v>6</v>
+      </c>
+      <c r="N155" s="55">
         <v>6</v>
       </c>
       <c r="O155" s="25">
@@ -10175,40 +10176,40 @@
       <c r="B156" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="C156" s="62">
-        <v>6</v>
-      </c>
-      <c r="D156" s="62">
-        <v>6</v>
-      </c>
-      <c r="E156" s="62">
-        <v>6</v>
-      </c>
-      <c r="F156" s="62">
+      <c r="C156" s="55">
+        <v>6</v>
+      </c>
+      <c r="D156" s="55">
+        <v>6</v>
+      </c>
+      <c r="E156" s="55">
+        <v>6</v>
+      </c>
+      <c r="F156" s="55">
         <v>9</v>
       </c>
       <c r="G156" s="22">
         <v>6</v>
       </c>
-      <c r="H156" s="62">
-        <v>6</v>
-      </c>
-      <c r="I156" s="62">
+      <c r="H156" s="55">
+        <v>6</v>
+      </c>
+      <c r="I156" s="55">
         <v>6</v>
       </c>
       <c r="J156" s="24">
         <v>9</v>
       </c>
-      <c r="K156" s="62">
-        <v>6</v>
-      </c>
-      <c r="L156" s="62">
-        <v>6</v>
-      </c>
-      <c r="M156" s="62">
-        <v>6</v>
-      </c>
-      <c r="N156" s="62">
+      <c r="K156" s="55">
+        <v>6</v>
+      </c>
+      <c r="L156" s="55">
+        <v>6</v>
+      </c>
+      <c r="M156" s="55">
+        <v>6</v>
+      </c>
+      <c r="N156" s="55">
         <v>9</v>
       </c>
       <c r="O156" s="25">
@@ -10238,40 +10239,40 @@
       <c r="B157" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C157" s="63">
-        <v>6</v>
-      </c>
-      <c r="D157" s="63">
+      <c r="C157" s="56">
+        <v>6</v>
+      </c>
+      <c r="D157" s="56">
         <v>15</v>
       </c>
-      <c r="E157" s="63">
-        <v>3</v>
-      </c>
-      <c r="F157" s="63">
+      <c r="E157" s="56">
+        <v>3</v>
+      </c>
+      <c r="F157" s="56">
         <v>9</v>
       </c>
       <c r="G157" s="41">
         <v>6</v>
       </c>
-      <c r="H157" s="63">
-        <v>12</v>
-      </c>
-      <c r="I157" s="63">
+      <c r="H157" s="56">
+        <v>12</v>
+      </c>
+      <c r="I157" s="56">
         <v>6</v>
       </c>
       <c r="J157" s="47">
         <v>12</v>
       </c>
-      <c r="K157" s="63">
-        <v>6</v>
-      </c>
-      <c r="L157" s="63">
-        <v>9</v>
-      </c>
-      <c r="M157" s="63">
-        <v>6</v>
-      </c>
-      <c r="N157" s="63">
+      <c r="K157" s="56">
+        <v>6</v>
+      </c>
+      <c r="L157" s="56">
+        <v>9</v>
+      </c>
+      <c r="M157" s="56">
+        <v>6</v>
+      </c>
+      <c r="N157" s="56">
         <v>12</v>
       </c>
       <c r="O157" s="43">
@@ -10326,40 +10327,40 @@
       <c r="B159" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C159" s="62">
-        <v>6</v>
-      </c>
-      <c r="D159" s="62">
-        <v>6</v>
-      </c>
-      <c r="E159" s="62">
-        <v>3</v>
-      </c>
-      <c r="F159" s="62">
+      <c r="C159" s="55">
+        <v>6</v>
+      </c>
+      <c r="D159" s="55">
+        <v>6</v>
+      </c>
+      <c r="E159" s="55">
+        <v>3</v>
+      </c>
+      <c r="F159" s="55">
         <v>18</v>
       </c>
       <c r="G159" s="22">
         <v>9</v>
       </c>
-      <c r="H159" s="62">
-        <v>6</v>
-      </c>
-      <c r="I159" s="62">
+      <c r="H159" s="55">
+        <v>6</v>
+      </c>
+      <c r="I159" s="55">
         <v>6</v>
       </c>
       <c r="J159" s="24">
         <v>9</v>
       </c>
-      <c r="K159" s="62">
-        <v>9</v>
-      </c>
-      <c r="L159" s="62">
-        <v>6</v>
-      </c>
-      <c r="M159" s="62">
-        <v>6</v>
-      </c>
-      <c r="N159" s="62">
+      <c r="K159" s="55">
+        <v>9</v>
+      </c>
+      <c r="L159" s="55">
+        <v>6</v>
+      </c>
+      <c r="M159" s="55">
+        <v>6</v>
+      </c>
+      <c r="N159" s="55">
         <v>9</v>
       </c>
       <c r="O159" s="25">
@@ -10389,40 +10390,40 @@
       <c r="B160" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="C160" s="62">
-        <v>3</v>
-      </c>
-      <c r="D160" s="62">
+      <c r="C160" s="55">
+        <v>3</v>
+      </c>
+      <c r="D160" s="55">
         <v>18</v>
       </c>
-      <c r="E160" s="62">
-        <v>6</v>
-      </c>
-      <c r="F160" s="62">
+      <c r="E160" s="55">
+        <v>6</v>
+      </c>
+      <c r="F160" s="55">
         <v>27</v>
       </c>
       <c r="G160" s="22">
         <v>9</v>
       </c>
-      <c r="H160" s="62">
-        <v>12</v>
-      </c>
-      <c r="I160" s="62">
+      <c r="H160" s="55">
+        <v>12</v>
+      </c>
+      <c r="I160" s="55">
         <v>12</v>
       </c>
       <c r="J160" s="24">
         <v>15</v>
       </c>
-      <c r="K160" s="62">
-        <v>12</v>
-      </c>
-      <c r="L160" s="62">
-        <v>12</v>
-      </c>
-      <c r="M160" s="62">
-        <v>12</v>
-      </c>
-      <c r="N160" s="62">
+      <c r="K160" s="55">
+        <v>12</v>
+      </c>
+      <c r="L160" s="55">
+        <v>12</v>
+      </c>
+      <c r="M160" s="55">
+        <v>12</v>
+      </c>
+      <c r="N160" s="55">
         <v>15</v>
       </c>
       <c r="O160" s="25">
@@ -10452,40 +10453,40 @@
       <c r="B161" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C161" s="62">
-        <v>9</v>
-      </c>
-      <c r="D161" s="62">
-        <v>9</v>
-      </c>
-      <c r="E161" s="62">
-        <v>9</v>
-      </c>
-      <c r="F161" s="62">
+      <c r="C161" s="55">
+        <v>9</v>
+      </c>
+      <c r="D161" s="55">
+        <v>9</v>
+      </c>
+      <c r="E161" s="55">
+        <v>9</v>
+      </c>
+      <c r="F161" s="55">
         <v>12</v>
       </c>
       <c r="G161" s="22">
         <v>12</v>
       </c>
-      <c r="H161" s="62">
-        <v>9</v>
-      </c>
-      <c r="I161" s="62">
+      <c r="H161" s="55">
+        <v>9</v>
+      </c>
+      <c r="I161" s="55">
         <v>12</v>
       </c>
       <c r="J161" s="24">
         <v>9</v>
       </c>
-      <c r="K161" s="62">
-        <v>12</v>
-      </c>
-      <c r="L161" s="62">
-        <v>9</v>
-      </c>
-      <c r="M161" s="62">
-        <v>12</v>
-      </c>
-      <c r="N161" s="62">
+      <c r="K161" s="55">
+        <v>12</v>
+      </c>
+      <c r="L161" s="55">
+        <v>9</v>
+      </c>
+      <c r="M161" s="55">
+        <v>12</v>
+      </c>
+      <c r="N161" s="55">
         <v>9</v>
       </c>
       <c r="O161" s="25">
@@ -10515,40 +10516,40 @@
       <c r="B162" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="C162" s="62">
-        <v>3</v>
-      </c>
-      <c r="D162" s="62">
+      <c r="C162" s="55">
+        <v>3</v>
+      </c>
+      <c r="D162" s="55">
         <v>18</v>
       </c>
-      <c r="E162" s="62">
-        <v>6</v>
-      </c>
-      <c r="F162" s="62">
+      <c r="E162" s="55">
+        <v>6</v>
+      </c>
+      <c r="F162" s="55">
         <v>12</v>
       </c>
       <c r="G162" s="22">
         <v>9</v>
       </c>
-      <c r="H162" s="62">
-        <v>12</v>
-      </c>
-      <c r="I162" s="62">
+      <c r="H162" s="55">
+        <v>12</v>
+      </c>
+      <c r="I162" s="55">
         <v>12</v>
       </c>
       <c r="J162" s="24">
         <v>12</v>
       </c>
-      <c r="K162" s="62">
-        <v>9</v>
-      </c>
-      <c r="L162" s="62">
-        <v>12</v>
-      </c>
-      <c r="M162" s="62">
-        <v>12</v>
-      </c>
-      <c r="N162" s="62">
+      <c r="K162" s="55">
+        <v>9</v>
+      </c>
+      <c r="L162" s="55">
+        <v>12</v>
+      </c>
+      <c r="M162" s="55">
+        <v>12</v>
+      </c>
+      <c r="N162" s="55">
         <v>12</v>
       </c>
       <c r="O162" s="25">
@@ -10578,40 +10579,40 @@
       <c r="B163" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C163" s="63">
-        <v>6</v>
-      </c>
-      <c r="D163" s="63">
-        <v>9</v>
-      </c>
-      <c r="E163" s="63">
-        <v>6</v>
-      </c>
-      <c r="F163" s="63">
+      <c r="C163" s="56">
+        <v>6</v>
+      </c>
+      <c r="D163" s="56">
+        <v>9</v>
+      </c>
+      <c r="E163" s="56">
+        <v>6</v>
+      </c>
+      <c r="F163" s="56">
         <v>15</v>
       </c>
       <c r="G163" s="41">
         <v>6</v>
       </c>
-      <c r="H163" s="63">
-        <v>9</v>
-      </c>
-      <c r="I163" s="63">
+      <c r="H163" s="56">
+        <v>9</v>
+      </c>
+      <c r="I163" s="56">
         <v>9</v>
       </c>
       <c r="J163" s="47">
         <v>12</v>
       </c>
-      <c r="K163" s="63">
-        <v>6</v>
-      </c>
-      <c r="L163" s="63">
-        <v>9</v>
-      </c>
-      <c r="M163" s="63">
-        <v>9</v>
-      </c>
-      <c r="N163" s="63">
+      <c r="K163" s="56">
+        <v>6</v>
+      </c>
+      <c r="L163" s="56">
+        <v>9</v>
+      </c>
+      <c r="M163" s="56">
+        <v>9</v>
+      </c>
+      <c r="N163" s="56">
         <v>12</v>
       </c>
       <c r="O163" s="43">
@@ -10666,40 +10667,40 @@
       <c r="B165" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C165" s="62">
+      <c r="C165" s="55">
         <v>120</v>
       </c>
-      <c r="D165" s="62">
+      <c r="D165" s="55">
         <v>75</v>
       </c>
-      <c r="E165" s="62">
+      <c r="E165" s="55">
         <v>150</v>
       </c>
-      <c r="F165" s="62">
+      <c r="F165" s="55">
         <v>105</v>
       </c>
       <c r="G165" s="22">
         <v>120</v>
       </c>
-      <c r="H165" s="62">
+      <c r="H165" s="55">
         <v>90</v>
       </c>
-      <c r="I165" s="62">
+      <c r="I165" s="55">
         <v>135</v>
       </c>
       <c r="J165" s="24">
         <v>105</v>
       </c>
-      <c r="K165" s="62">
+      <c r="K165" s="55">
         <v>120</v>
       </c>
-      <c r="L165" s="62">
+      <c r="L165" s="55">
         <v>90</v>
       </c>
-      <c r="M165" s="62">
+      <c r="M165" s="55">
         <v>120</v>
       </c>
-      <c r="N165" s="62">
+      <c r="N165" s="55">
         <v>105</v>
       </c>
       <c r="O165" s="25">
@@ -10729,40 +10730,40 @@
       <c r="B166" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="62">
+      <c r="C166" s="55">
         <v>60</v>
       </c>
-      <c r="D166" s="62">
+      <c r="D166" s="55">
         <v>30</v>
       </c>
-      <c r="E166" s="62">
+      <c r="E166" s="55">
         <v>90</v>
       </c>
-      <c r="F166" s="62">
+      <c r="F166" s="55">
         <v>45</v>
       </c>
       <c r="G166" s="22">
         <v>60</v>
       </c>
-      <c r="H166" s="62">
+      <c r="H166" s="55">
         <v>37.5</v>
       </c>
-      <c r="I166" s="62">
+      <c r="I166" s="55">
         <v>75</v>
       </c>
       <c r="J166" s="24">
         <v>45</v>
       </c>
-      <c r="K166" s="62">
+      <c r="K166" s="55">
         <v>67.5</v>
       </c>
-      <c r="L166" s="62">
+      <c r="L166" s="55">
         <v>45</v>
       </c>
-      <c r="M166" s="62">
+      <c r="M166" s="55">
         <v>67.5</v>
       </c>
-      <c r="N166" s="62">
+      <c r="N166" s="55">
         <v>52.5</v>
       </c>
       <c r="O166" s="25">
@@ -10792,40 +10793,40 @@
       <c r="B167" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C167" s="62">
+      <c r="C167" s="55">
         <v>30</v>
       </c>
-      <c r="D167" s="62">
+      <c r="D167" s="55">
         <v>24</v>
       </c>
-      <c r="E167" s="62">
+      <c r="E167" s="55">
         <v>60</v>
       </c>
-      <c r="F167" s="62">
+      <c r="F167" s="55">
         <v>30</v>
       </c>
       <c r="G167" s="41">
         <v>30</v>
       </c>
-      <c r="H167" s="63">
+      <c r="H167" s="56">
         <v>30</v>
       </c>
-      <c r="I167" s="63">
+      <c r="I167" s="56">
         <v>48</v>
       </c>
       <c r="J167" s="47">
         <v>36</v>
       </c>
-      <c r="K167" s="62">
+      <c r="K167" s="55">
         <v>36</v>
       </c>
-      <c r="L167" s="62">
+      <c r="L167" s="55">
         <v>30</v>
       </c>
-      <c r="M167" s="62">
+      <c r="M167" s="55">
         <v>48</v>
       </c>
-      <c r="N167" s="62">
+      <c r="N167" s="55">
         <v>36</v>
       </c>
       <c r="O167" s="25">
@@ -10849,75 +10850,89 @@
       </c>
     </row>
     <row r="168" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="55" t="s">
+      <c r="A168" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="B168" s="56"/>
+      <c r="B168" s="58"/>
       <c r="C168" s="54">
         <f t="shared" ref="C168:P168" si="16">SUM(C6:C167)</f>
-        <v>1422.75</v>
+        <v>1290.75</v>
       </c>
       <c r="D168" s="54">
         <f>SUM(D6:D167)</f>
-        <v>1896</v>
+        <v>1650</v>
       </c>
       <c r="E168" s="54">
         <f>SUM(E6:E167)</f>
-        <v>1707</v>
+        <v>1615.5</v>
       </c>
       <c r="F168" s="54">
         <f t="shared" si="16"/>
-        <v>1887</v>
+        <v>1662</v>
       </c>
       <c r="G168" s="54">
         <f t="shared" si="16"/>
-        <v>1686.75</v>
+        <v>1514.25</v>
       </c>
       <c r="H168" s="54">
         <f t="shared" si="16"/>
-        <v>1770</v>
+        <v>1564.5</v>
       </c>
       <c r="I168" s="54">
         <f t="shared" si="16"/>
-        <v>1836</v>
+        <v>1698</v>
       </c>
       <c r="J168" s="54">
         <f t="shared" si="16"/>
-        <v>1836</v>
+        <v>1639.5</v>
       </c>
       <c r="K168" s="54">
         <f t="shared" si="16"/>
-        <v>1716.75</v>
+        <v>1544.25</v>
       </c>
       <c r="L168" s="54">
         <f t="shared" si="16"/>
-        <v>1753.5</v>
+        <v>1552.5</v>
       </c>
       <c r="M168" s="54">
         <f t="shared" si="16"/>
-        <v>1831.5</v>
+        <v>1681.5</v>
       </c>
       <c r="N168" s="54">
         <f t="shared" si="16"/>
-        <v>1819.5</v>
+        <v>1627.5</v>
       </c>
       <c r="O168" s="54">
         <f t="shared" si="16"/>
-        <v>1780.3125</v>
+        <v>1601.4375</v>
       </c>
       <c r="P168" s="54">
         <f t="shared" si="16"/>
-        <v>1775.25</v>
+        <v>1593.75</v>
       </c>
       <c r="Q168" s="54">
         <f>SUM(Q6:Q167)</f>
-        <v>1782</v>
+        <v>1604</v>
       </c>
       <c r="R168" s="54">
         <f>SUM(R6:R167)</f>
-        <v>2962.5750000000003</v>
+        <v>2666.6500000000005</v>
       </c>
       <c r="S168" s="50"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K172" s="64"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K174" s="55"/>
+      <c r="L174" s="64"/>
+      <c r="M174" s="55"/>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L180" s="64"/>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L183" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
